--- a/src/attributions/attributions_ig_traj_455.xlsx
+++ b/src/attributions/attributions_ig_traj_455.xlsx
@@ -1576,13 +1576,13 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>-0</v>
@@ -1603,13 +1603,13 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>-0</v>
@@ -1630,13 +1630,13 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="AC3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AD3" t="n">
         <v>0</v>
       </c>
       <c r="AE3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AF3" t="n">
         <v>-0</v>
@@ -1684,13 +1684,13 @@
         <v>0</v>
       </c>
       <c r="AL3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AM3" t="n">
         <v>0</v>
       </c>
       <c r="AN3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AO3" t="n">
         <v>-0</v>
@@ -1711,13 +1711,13 @@
         <v>0</v>
       </c>
       <c r="AU3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AV3" t="n">
         <v>0</v>
       </c>
       <c r="AW3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AX3" t="n">
         <v>-0</v>
@@ -1738,13 +1738,13 @@
         <v>0</v>
       </c>
       <c r="BD3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BE3" t="n">
         <v>0</v>
       </c>
       <c r="BF3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BG3" t="n">
         <v>-0</v>
@@ -1765,13 +1765,13 @@
         <v>0</v>
       </c>
       <c r="BM3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BN3" t="n">
         <v>0</v>
       </c>
       <c r="BO3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BP3" t="n">
         <v>-0</v>
@@ -1792,13 +1792,13 @@
         <v>0</v>
       </c>
       <c r="BV3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BW3" t="n">
         <v>0</v>
       </c>
       <c r="BX3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BY3" t="n">
         <v>-0</v>
@@ -1819,13 +1819,13 @@
         <v>0</v>
       </c>
       <c r="CE3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CF3" t="n">
         <v>0</v>
       </c>
       <c r="CG3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CH3" t="n">
         <v>-0</v>
@@ -1846,13 +1846,13 @@
         <v>0</v>
       </c>
       <c r="CN3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CO3" t="n">
         <v>0</v>
       </c>
       <c r="CP3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CQ3" t="n">
         <v>-0</v>
@@ -1900,13 +1900,13 @@
         <v>0</v>
       </c>
       <c r="DF3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DG3" t="n">
         <v>0</v>
       </c>
       <c r="DH3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DI3" t="n">
         <v>-0</v>
@@ -1927,13 +1927,13 @@
         <v>0</v>
       </c>
       <c r="DO3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DP3" t="n">
         <v>0</v>
       </c>
       <c r="DQ3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DR3" t="n">
         <v>-0</v>
@@ -1981,13 +1981,13 @@
         <v>0</v>
       </c>
       <c r="EG3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EH3" t="n">
         <v>0</v>
       </c>
       <c r="EI3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EJ3" t="n">
         <v>-0</v>
@@ -2008,13 +2008,13 @@
         <v>0</v>
       </c>
       <c r="EP3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EQ3" t="n">
         <v>0</v>
       </c>
       <c r="ER3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="ES3" t="n">
         <v>-0</v>
@@ -2035,13 +2035,13 @@
         <v>0</v>
       </c>
       <c r="EY3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EZ3" t="n">
         <v>0</v>
       </c>
       <c r="FA3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FB3" t="n">
         <v>-0</v>
@@ -2062,13 +2062,13 @@
         <v>0</v>
       </c>
       <c r="FH3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FI3" t="n">
         <v>0</v>
       </c>
       <c r="FJ3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FK3" t="n">
         <v>-0</v>
@@ -2145,19 +2145,19 @@
         <v>0</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.0721454044657933</v>
+        <v>0.08727408333273601</v>
       </c>
       <c r="C4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1088241583539078</v>
+        <v>-0</v>
       </c>
       <c r="E4" t="n">
-        <v>0.03677032338316803</v>
+        <v>-0.01642797207250347</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>-0.08223049834508256</v>
       </c>
       <c r="G4" t="n">
         <v>-0</v>
@@ -2172,25 +2172,25 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>-0.07569314119368484</v>
+        <v>0.03891417324515582</v>
       </c>
       <c r="L4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0.06671649350262555</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>0.02968804076663969</v>
+        <v>-0.02488166549483367</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>-0.09436539076890151</v>
       </c>
       <c r="P4" t="n">
         <v>-0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="R4" t="n">
         <v>-0</v>
@@ -2199,19 +2199,19 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>-0.001437947846671254</v>
+        <v>0.0007999612218006226</v>
       </c>
       <c r="U4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>-0.004106858206476378</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>-6.323792297879253e-11</v>
+        <v>-8.608517670089944e-12</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>-0.001748930433013935</v>
       </c>
       <c r="Y4" t="n">
         <v>-0</v>
@@ -2220,28 +2220,28 @@
         <v>0</v>
       </c>
       <c r="AA4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AB4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AC4" t="n">
-        <v>-0.06690421953104833</v>
+        <v>0.03457903056521986</v>
       </c>
       <c r="AD4" t="n">
         <v>0</v>
       </c>
       <c r="AE4" t="n">
-        <v>0.06701176682870325</v>
+        <v>-0</v>
       </c>
       <c r="AF4" t="n">
-        <v>-0.07699742971478428</v>
+        <v>0.04177860638056132</v>
       </c>
       <c r="AG4" t="n">
-        <v>0</v>
+        <v>0.002327802592311289</v>
       </c>
       <c r="AH4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AI4" t="n">
         <v>-0</v>
@@ -2253,52 +2253,52 @@
         <v>0</v>
       </c>
       <c r="AL4" t="n">
-        <v>-0.04613368268799617</v>
+        <v>0.00325257946370418</v>
       </c>
       <c r="AM4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AN4" t="n">
-        <v>-0.001612899333367068</v>
+        <v>0</v>
       </c>
       <c r="AO4" t="n">
-        <v>-0.01761928328332995</v>
+        <v>-0.0322385386221192</v>
       </c>
       <c r="AP4" t="n">
-        <v>-0</v>
+        <v>-0.01939745858040779</v>
       </c>
       <c r="AQ4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AR4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AS4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AT4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AU4" t="n">
-        <v>-0.1339392797976523</v>
+        <v>0.08554259342875249</v>
       </c>
       <c r="AV4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AW4" t="n">
-        <v>0.02685237174195911</v>
+        <v>0</v>
       </c>
       <c r="AX4" t="n">
-        <v>-0.009851771477256655</v>
+        <v>-0.01398774979621355</v>
       </c>
       <c r="AY4" t="n">
-        <v>0</v>
+        <v>-0.06101352613117195</v>
       </c>
       <c r="AZ4" t="n">
         <v>0</v>
       </c>
       <c r="BA4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BB4" t="n">
         <v>0</v>
@@ -2307,19 +2307,19 @@
         <v>0</v>
       </c>
       <c r="BD4" t="n">
-        <v>-0.008487649699374419</v>
+        <v>0.01983739284361065</v>
       </c>
       <c r="BE4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BF4" t="n">
-        <v>0.05156762359044641</v>
+        <v>0</v>
       </c>
       <c r="BG4" t="n">
-        <v>0.01135706539347301</v>
+        <v>-0.03419947595479389</v>
       </c>
       <c r="BH4" t="n">
-        <v>-0</v>
+        <v>-0.02981909077219066</v>
       </c>
       <c r="BI4" t="n">
         <v>-0</v>
@@ -2334,19 +2334,19 @@
         <v>0</v>
       </c>
       <c r="BM4" t="n">
-        <v>0.04692208637500958</v>
+        <v>0.06026684711136494</v>
       </c>
       <c r="BN4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BO4" t="n">
-        <v>0.03786696049031094</v>
+        <v>-0</v>
       </c>
       <c r="BP4" t="n">
-        <v>0.00369136595264548</v>
+        <v>0.01410116218102058</v>
       </c>
       <c r="BQ4" t="n">
-        <v>0</v>
+        <v>0.01413546874850714</v>
       </c>
       <c r="BR4" t="n">
         <v>-0</v>
@@ -2358,49 +2358,49 @@
         <v>0</v>
       </c>
       <c r="BU4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BV4" t="n">
-        <v>-0.00939882550625443</v>
+        <v>0.04794092056928421</v>
       </c>
       <c r="BW4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BX4" t="n">
-        <v>0.0807844761591959</v>
+        <v>0</v>
       </c>
       <c r="BY4" t="n">
-        <v>-0.02352976661759137</v>
+        <v>-0.0317491031714139</v>
       </c>
       <c r="BZ4" t="n">
-        <v>-0</v>
+        <v>-0.005502916340310884</v>
       </c>
       <c r="CA4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CB4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CC4" t="n">
         <v>0</v>
       </c>
       <c r="CD4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CE4" t="n">
-        <v>0.04889433506097857</v>
+        <v>-0.02021450213266978</v>
       </c>
       <c r="CF4" t="n">
         <v>0</v>
       </c>
       <c r="CG4" t="n">
-        <v>-0.03088294521661597</v>
+        <v>0</v>
       </c>
       <c r="CH4" t="n">
-        <v>0.01151363186048807</v>
+        <v>-0.005926010609935093</v>
       </c>
       <c r="CI4" t="n">
-        <v>-0</v>
+        <v>0.04608787369803052</v>
       </c>
       <c r="CJ4" t="n">
         <v>0</v>
@@ -2415,19 +2415,19 @@
         <v>-0</v>
       </c>
       <c r="CN4" t="n">
-        <v>0.006868703548278246</v>
+        <v>0.01161434716791629</v>
       </c>
       <c r="CO4" t="n">
         <v>-0</v>
       </c>
       <c r="CP4" t="n">
-        <v>-0.01039783394904056</v>
+        <v>0</v>
       </c>
       <c r="CQ4" t="n">
-        <v>0.0969998775837083</v>
+        <v>0.01142980483733433</v>
       </c>
       <c r="CR4" t="n">
-        <v>0</v>
+        <v>-0.007949442911885537</v>
       </c>
       <c r="CS4" t="n">
         <v>0</v>
@@ -2439,22 +2439,22 @@
         <v>0</v>
       </c>
       <c r="CV4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CW4" t="n">
-        <v>0.04693833781396987</v>
+        <v>-0.01187432486324526</v>
       </c>
       <c r="CX4" t="n">
         <v>-0</v>
       </c>
       <c r="CY4" t="n">
-        <v>-0.02932417143354354</v>
+        <v>0</v>
       </c>
       <c r="CZ4" t="n">
-        <v>0.003752608131005443</v>
+        <v>-0.01133847450321207</v>
       </c>
       <c r="DA4" t="n">
-        <v>0</v>
+        <v>0.04084017043401145</v>
       </c>
       <c r="DB4" t="n">
         <v>-0</v>
@@ -2466,22 +2466,22 @@
         <v>-0</v>
       </c>
       <c r="DE4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DF4" t="n">
-        <v>0.1388712726912238</v>
+        <v>-0.02726378902399773</v>
       </c>
       <c r="DG4" t="n">
         <v>0</v>
       </c>
       <c r="DH4" t="n">
-        <v>-0.01100069014999111</v>
+        <v>-0</v>
       </c>
       <c r="DI4" t="n">
-        <v>-0.01758507712247762</v>
+        <v>0.002129967807472999</v>
       </c>
       <c r="DJ4" t="n">
-        <v>0</v>
+        <v>0.100200347251305</v>
       </c>
       <c r="DK4" t="n">
         <v>0</v>
@@ -2493,49 +2493,49 @@
         <v>0</v>
       </c>
       <c r="DN4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DO4" t="n">
-        <v>-0.02234511184239444</v>
+        <v>-0.0148669402598718</v>
       </c>
       <c r="DP4" t="n">
         <v>0</v>
       </c>
       <c r="DQ4" t="n">
-        <v>0.02619630929065836</v>
+        <v>-0</v>
       </c>
       <c r="DR4" t="n">
-        <v>0.07648261813539894</v>
+        <v>0.02170968386930312</v>
       </c>
       <c r="DS4" t="n">
-        <v>-0</v>
+        <v>0.01331238477748404</v>
       </c>
       <c r="DT4" t="n">
         <v>0</v>
       </c>
       <c r="DU4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DV4" t="n">
         <v>-0</v>
       </c>
       <c r="DW4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DX4" t="n">
-        <v>-0.05779887062216781</v>
+        <v>0.01537334084896861</v>
       </c>
       <c r="DY4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DZ4" t="n">
-        <v>0.05615028583550772</v>
+        <v>0</v>
       </c>
       <c r="EA4" t="n">
-        <v>-0.01058600332423813</v>
+        <v>-0.01650015554441375</v>
       </c>
       <c r="EB4" t="n">
-        <v>-0</v>
+        <v>-0.03981623509451866</v>
       </c>
       <c r="EC4" t="n">
         <v>-0</v>
@@ -2544,31 +2544,31 @@
         <v>-0</v>
       </c>
       <c r="EE4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EF4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EG4" t="n">
-        <v>0.04301159479036323</v>
+        <v>0.002403043101140439</v>
       </c>
       <c r="EH4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EI4" t="n">
-        <v>-0.04457393843494262</v>
+        <v>0</v>
       </c>
       <c r="EJ4" t="n">
-        <v>-0.08528804717464311</v>
+        <v>-0.008125011946469016</v>
       </c>
       <c r="EK4" t="n">
-        <v>-0</v>
+        <v>0.001479753386309921</v>
       </c>
       <c r="EL4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EM4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EN4" t="n">
         <v>0</v>
@@ -2577,19 +2577,19 @@
         <v>0</v>
       </c>
       <c r="EP4" t="n">
-        <v>0.02082507688099734</v>
+        <v>0.001804926691556863</v>
       </c>
       <c r="EQ4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="ER4" t="n">
-        <v>-0.000901493380841229</v>
+        <v>0</v>
       </c>
       <c r="ES4" t="n">
-        <v>0.04422981386773144</v>
+        <v>-0.02562075530765663</v>
       </c>
       <c r="ET4" t="n">
-        <v>0</v>
+        <v>0.05181487772292677</v>
       </c>
       <c r="EU4" t="n">
         <v>-0</v>
@@ -2598,55 +2598,55 @@
         <v>0</v>
       </c>
       <c r="EW4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EX4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EY4" t="n">
-        <v>0.0380446751008307</v>
+        <v>-0.01315912561089471</v>
       </c>
       <c r="EZ4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FA4" t="n">
-        <v>-0.01987200038198019</v>
+        <v>0</v>
       </c>
       <c r="FB4" t="n">
-        <v>0.01291973026691595</v>
+        <v>-0.008650347432055618</v>
       </c>
       <c r="FC4" t="n">
-        <v>0</v>
+        <v>0.03731126965678611</v>
       </c>
       <c r="FD4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FE4" t="n">
         <v>0</v>
       </c>
       <c r="FF4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FG4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FH4" t="n">
-        <v>0.01356731559240344</v>
+        <v>-0.01317345208808128</v>
       </c>
       <c r="FI4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FJ4" t="n">
-        <v>-0.02751358953566651</v>
+        <v>-0</v>
       </c>
       <c r="FK4" t="n">
-        <v>0.01483947569329108</v>
+        <v>-0.03031110527004939</v>
       </c>
       <c r="FL4" t="n">
-        <v>0</v>
+        <v>0.01272503737130856</v>
       </c>
       <c r="FM4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FN4" t="n">
         <v>-0</v>
@@ -2655,22 +2655,22 @@
         <v>0</v>
       </c>
       <c r="FP4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FQ4" t="n">
-        <v>-0.0009709125073175911</v>
+        <v>-0.001453011381188064</v>
       </c>
       <c r="FR4" t="n">
         <v>0</v>
       </c>
       <c r="FS4" t="n">
-        <v>0.05851289022758753</v>
+        <v>-0</v>
       </c>
       <c r="FT4" t="n">
-        <v>0.01007146454564591</v>
+        <v>-0.006704718076991463</v>
       </c>
       <c r="FU4" t="n">
-        <v>0</v>
+        <v>0.06437703176086719</v>
       </c>
       <c r="FV4" t="n">
         <v>-0</v>
@@ -2679,28 +2679,28 @@
         <v>-0</v>
       </c>
       <c r="FX4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FY4" t="n">
         <v>-0</v>
       </c>
       <c r="FZ4" t="n">
-        <v>0.02944498282674262</v>
+        <v>-0.03628349032913704</v>
       </c>
       <c r="GA4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GB4" t="n">
-        <v>0.06816227608615576</v>
+        <v>-0</v>
       </c>
       <c r="GC4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GD4" t="n">
-        <v>-0</v>
+        <v>-0.006196896051943147</v>
       </c>
       <c r="GE4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GF4" t="n">
         <v>-0</v>
@@ -2714,43 +2714,43 @@
         <v>-0</v>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>0.2536977471800035</v>
       </c>
       <c r="C5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0.106133115881251</v>
+        <v>-0.1001145504904244</v>
       </c>
       <c r="E5" t="n">
-        <v>0.07435733669219727</v>
+        <v>-0.1184419826617814</v>
       </c>
       <c r="F5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>-0.06136046650354615</v>
+        <v>-0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J5" t="n">
         <v>-0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>0.1535927038812772</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M5" t="n">
-        <v>0.05098660283812549</v>
+        <v>-0.05327147237775188</v>
       </c>
       <c r="N5" t="n">
-        <v>0.02757564202745528</v>
+        <v>-0.1238259403166354</v>
       </c>
       <c r="O5" t="n">
         <v>0</v>
@@ -2759,52 +2759,52 @@
         <v>-0</v>
       </c>
       <c r="Q5" t="n">
-        <v>-0.04839486577623937</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>0.0135512665319853</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="V5" t="n">
-        <v>-0.00789956738059356</v>
+        <v>-0.00844455339361224</v>
       </c>
       <c r="W5" t="n">
-        <v>-0.01399461215110591</v>
+        <v>0.00352095190300312</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Z5" t="n">
-        <v>-0.01552556418219928</v>
+        <v>0</v>
       </c>
       <c r="AA5" t="n">
         <v>0</v>
       </c>
       <c r="AB5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AC5" t="n">
-        <v>-0</v>
+        <v>0.07066940238318888</v>
       </c>
       <c r="AD5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AE5" t="n">
-        <v>0.02560759452822261</v>
+        <v>0.02724283184260177</v>
       </c>
       <c r="AF5" t="n">
-        <v>0.007271816799253078</v>
+        <v>0.07417046938767531</v>
       </c>
       <c r="AG5" t="n">
         <v>0</v>
@@ -2813,7 +2813,7 @@
         <v>-0</v>
       </c>
       <c r="AI5" t="n">
-        <v>0.05768741412973562</v>
+        <v>0</v>
       </c>
       <c r="AJ5" t="n">
         <v>-0</v>
@@ -2822,25 +2822,25 @@
         <v>0</v>
       </c>
       <c r="AL5" t="n">
-        <v>-0</v>
+        <v>-0.01088620113800968</v>
       </c>
       <c r="AM5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AN5" t="n">
-        <v>0.038896840534808</v>
+        <v>-0.04066507844130653</v>
       </c>
       <c r="AO5" t="n">
-        <v>0.06937554632567793</v>
+        <v>-0.08831362761948509</v>
       </c>
       <c r="AP5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AQ5" t="n">
         <v>-0</v>
       </c>
       <c r="AR5" t="n">
-        <v>-0.01979708734787531</v>
+        <v>0</v>
       </c>
       <c r="AS5" t="n">
         <v>0</v>
@@ -2849,16 +2849,16 @@
         <v>-0</v>
       </c>
       <c r="AU5" t="n">
-        <v>-0</v>
+        <v>0.3309384221161172</v>
       </c>
       <c r="AV5" t="n">
         <v>-0</v>
       </c>
       <c r="AW5" t="n">
-        <v>0.09458014871894406</v>
+        <v>0.02710014973629501</v>
       </c>
       <c r="AX5" t="n">
-        <v>0.09001781622280253</v>
+        <v>0.121482436043817</v>
       </c>
       <c r="AY5" t="n">
         <v>-0</v>
@@ -2867,25 +2867,25 @@
         <v>0</v>
       </c>
       <c r="BA5" t="n">
-        <v>-0.1066199085225513</v>
+        <v>-0</v>
       </c>
       <c r="BB5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BC5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BD5" t="n">
-        <v>0</v>
+        <v>0.00119180359691339</v>
       </c>
       <c r="BE5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BF5" t="n">
-        <v>0.008868739492924079</v>
+        <v>-0.08286590972697597</v>
       </c>
       <c r="BG5" t="n">
-        <v>-0.01386694761489442</v>
+        <v>-0.112598004991746</v>
       </c>
       <c r="BH5" t="n">
         <v>0</v>
@@ -2894,52 +2894,52 @@
         <v>-0</v>
       </c>
       <c r="BJ5" t="n">
-        <v>-0.01872638098704715</v>
+        <v>0</v>
       </c>
       <c r="BK5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BL5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BM5" t="n">
-        <v>0</v>
+        <v>0.1701695321368769</v>
       </c>
       <c r="BN5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BO5" t="n">
-        <v>0.01454751140098108</v>
+        <v>0.05068906073211055</v>
       </c>
       <c r="BP5" t="n">
-        <v>0.003352393695246668</v>
+        <v>0.1868513015828584</v>
       </c>
       <c r="BQ5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BR5" t="n">
         <v>-0</v>
       </c>
       <c r="BS5" t="n">
-        <v>0.07624064501867586</v>
+        <v>-0</v>
       </c>
       <c r="BT5" t="n">
         <v>-0</v>
       </c>
       <c r="BU5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BV5" t="n">
-        <v>0</v>
+        <v>0.2315950019382538</v>
       </c>
       <c r="BW5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BX5" t="n">
-        <v>0.1203210298384195</v>
+        <v>-0.00614328460294165</v>
       </c>
       <c r="BY5" t="n">
-        <v>0.04597389075807146</v>
+        <v>0.01109952078419985</v>
       </c>
       <c r="BZ5" t="n">
         <v>-0</v>
@@ -2948,52 +2948,52 @@
         <v>0</v>
       </c>
       <c r="CB5" t="n">
-        <v>-0.08777440443749483</v>
+        <v>-0</v>
       </c>
       <c r="CC5" t="n">
         <v>0</v>
       </c>
       <c r="CD5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CE5" t="n">
-        <v>-0</v>
+        <v>-0.07287424908356276</v>
       </c>
       <c r="CF5" t="n">
         <v>0</v>
       </c>
       <c r="CG5" t="n">
-        <v>-0.05767003885681671</v>
+        <v>0.02835033909718585</v>
       </c>
       <c r="CH5" t="n">
-        <v>-0.01051779840206164</v>
+        <v>0.01195100511374847</v>
       </c>
       <c r="CI5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CJ5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CK5" t="n">
-        <v>0.03256772255563338</v>
+        <v>0</v>
       </c>
       <c r="CL5" t="n">
         <v>-0</v>
       </c>
       <c r="CM5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CN5" t="n">
-        <v>-0</v>
+        <v>-0.03744088966045861</v>
       </c>
       <c r="CO5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CP5" t="n">
-        <v>-0.0580365068277566</v>
+        <v>-0.06953436348124194</v>
       </c>
       <c r="CQ5" t="n">
-        <v>0.08091041870637354</v>
+        <v>-0.1502428576763397</v>
       </c>
       <c r="CR5" t="n">
         <v>0</v>
@@ -3002,34 +3002,34 @@
         <v>0</v>
       </c>
       <c r="CT5" t="n">
-        <v>0.006704621616213842</v>
+        <v>-0</v>
       </c>
       <c r="CU5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CV5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CW5" t="n">
-        <v>0</v>
+        <v>-0.0478665448784884</v>
       </c>
       <c r="CX5" t="n">
         <v>-0</v>
       </c>
       <c r="CY5" t="n">
-        <v>-0.05256698427818616</v>
+        <v>0.04887520278281549</v>
       </c>
       <c r="CZ5" t="n">
-        <v>0.005958780013823351</v>
+        <v>0.03058978567370953</v>
       </c>
       <c r="DA5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DB5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DC5" t="n">
-        <v>0.01880435116202692</v>
+        <v>0</v>
       </c>
       <c r="DD5" t="n">
         <v>0</v>
@@ -3038,43 +3038,43 @@
         <v>0</v>
       </c>
       <c r="DF5" t="n">
-        <v>0</v>
+        <v>-0.00189601566839918</v>
       </c>
       <c r="DG5" t="n">
         <v>0</v>
       </c>
       <c r="DH5" t="n">
-        <v>-0.003328719846839643</v>
+        <v>0.04143304171603877</v>
       </c>
       <c r="DI5" t="n">
-        <v>-0.04885395893656676</v>
+        <v>-0.01121300322538755</v>
       </c>
       <c r="DJ5" t="n">
         <v>0</v>
       </c>
       <c r="DK5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DL5" t="n">
-        <v>-0.01160355665904264</v>
+        <v>0</v>
       </c>
       <c r="DM5" t="n">
         <v>0</v>
       </c>
       <c r="DN5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DO5" t="n">
-        <v>0</v>
+        <v>-0.07906244752860028</v>
       </c>
       <c r="DP5" t="n">
         <v>0</v>
       </c>
       <c r="DQ5" t="n">
-        <v>0.02986298590088209</v>
+        <v>0.01758770606360126</v>
       </c>
       <c r="DR5" t="n">
-        <v>-0.02106754725673697</v>
+        <v>-0.03316153770247207</v>
       </c>
       <c r="DS5" t="n">
         <v>0</v>
@@ -3083,61 +3083,61 @@
         <v>0</v>
       </c>
       <c r="DU5" t="n">
-        <v>-0.006606175029455237</v>
+        <v>-0</v>
       </c>
       <c r="DV5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DW5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DX5" t="n">
-        <v>-0</v>
+        <v>0.01110658053119638</v>
       </c>
       <c r="DY5" t="n">
         <v>0</v>
       </c>
       <c r="DZ5" t="n">
-        <v>0.03736701786977941</v>
+        <v>-0.05586838202985328</v>
       </c>
       <c r="EA5" t="n">
-        <v>0.0005218695610418321</v>
+        <v>-0.03755520192209984</v>
       </c>
       <c r="EB5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EC5" t="n">
         <v>-0</v>
       </c>
       <c r="ED5" t="n">
-        <v>0.04767320172555761</v>
+        <v>-0</v>
       </c>
       <c r="EE5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EF5" t="n">
         <v>0</v>
       </c>
       <c r="EG5" t="n">
-        <v>-0</v>
+        <v>-0.04705603493390475</v>
       </c>
       <c r="EH5" t="n">
         <v>-0</v>
       </c>
       <c r="EI5" t="n">
-        <v>-0.06007268177390283</v>
+        <v>0.01416116182402654</v>
       </c>
       <c r="EJ5" t="n">
-        <v>-0.08844952039667069</v>
+        <v>0.1180312334767065</v>
       </c>
       <c r="EK5" t="n">
         <v>0</v>
       </c>
       <c r="EL5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EM5" t="n">
-        <v>0.05421037883869891</v>
+        <v>-0</v>
       </c>
       <c r="EN5" t="n">
         <v>-0</v>
@@ -3146,237 +3146,237 @@
         <v>0</v>
       </c>
       <c r="EP5" t="n">
-        <v>0</v>
+        <v>-0.05210053377239574</v>
       </c>
       <c r="EQ5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="ER5" t="n">
-        <v>-0.04628103698532344</v>
+        <v>0.02971979931139701</v>
       </c>
       <c r="ES5" t="n">
-        <v>0.04625229638918476</v>
+        <v>0.002185663754624066</v>
       </c>
       <c r="ET5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EU5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EV5" t="n">
-        <v>-0.05142314602509799</v>
+        <v>0</v>
       </c>
       <c r="EW5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EX5" t="n">
         <v>0</v>
       </c>
       <c r="EY5" t="n">
-        <v>-0</v>
+        <v>-0.04989131449314883</v>
       </c>
       <c r="EZ5" t="n">
         <v>0</v>
       </c>
       <c r="FA5" t="n">
-        <v>-0.04579989242785672</v>
+        <v>0.05036606182170809</v>
       </c>
       <c r="FB5" t="n">
-        <v>-0.0009282431038383954</v>
+        <v>0.03781196291699544</v>
       </c>
       <c r="FC5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FD5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FE5" t="n">
-        <v>0.03065751563798353</v>
+        <v>-0</v>
       </c>
       <c r="FF5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FG5" t="n">
         <v>0</v>
       </c>
       <c r="FH5" t="n">
-        <v>-0</v>
+        <v>0.04016113635462819</v>
       </c>
       <c r="FI5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FJ5" t="n">
-        <v>-0.05835984113822558</v>
+        <v>-0.109010206267746</v>
       </c>
       <c r="FK5" t="n">
-        <v>0.0396917878817059</v>
+        <v>0.0189320200059124</v>
       </c>
       <c r="FL5" t="n">
         <v>-0</v>
       </c>
       <c r="FM5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FN5" t="n">
-        <v>0.007681570198058747</v>
+        <v>0</v>
       </c>
       <c r="FO5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FP5" t="n">
         <v>0</v>
       </c>
       <c r="FQ5" t="n">
-        <v>0</v>
+        <v>-0.06621812078109421</v>
       </c>
       <c r="FR5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FS5" t="n">
-        <v>0.004453818746517822</v>
+        <v>0.03880440984762812</v>
       </c>
       <c r="FT5" t="n">
-        <v>0.03856129570330397</v>
+        <v>0.05301276258563901</v>
       </c>
       <c r="FU5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FV5" t="n">
         <v>-0</v>
       </c>
       <c r="FW5" t="n">
-        <v>0.04541157546815274</v>
+        <v>0</v>
       </c>
       <c r="FX5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FY5" t="n">
         <v>-0</v>
       </c>
       <c r="FZ5" t="n">
-        <v>0</v>
+        <v>-0.002044228204135527</v>
       </c>
       <c r="GA5" t="n">
         <v>-0</v>
       </c>
       <c r="GB5" t="n">
-        <v>-0.02383939570596382</v>
+        <v>-0.02053717539318418</v>
       </c>
       <c r="GC5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GD5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GE5" t="n">
         <v>-0</v>
       </c>
       <c r="GF5" t="n">
-        <v>0.002668584577658336</v>
+        <v>-0</v>
       </c>
       <c r="GG5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="B6" t="n">
-        <v>-0.04294866440661464</v>
+        <v>0.02040776730797569</v>
       </c>
       <c r="C6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0.122782639986541</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0.03101652632450056</v>
+        <v>-0.02887801450238349</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>-0.01365143524629087</v>
       </c>
       <c r="G6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K6" t="n">
-        <v>-0.04772242557825866</v>
+        <v>-0.003162173690686853</v>
       </c>
       <c r="L6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0.07964738361252707</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>0.01185969599015063</v>
+        <v>-0.03793284252861227</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>-0.02191533474832246</v>
       </c>
       <c r="P6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0.001501080473164212</v>
+        <v>-0.001264890983737572</v>
       </c>
       <c r="U6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>-0.02088359106397657</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>-0.02358048669450719</v>
+        <v>-0.0007845400952518819</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>-0.002162647457495659</v>
       </c>
       <c r="Y6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="Z6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AA6" t="n">
         <v>-0</v>
       </c>
       <c r="AB6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AC6" t="n">
-        <v>-0.02997850338179535</v>
+        <v>0.02965569108510239</v>
       </c>
       <c r="AD6" t="n">
         <v>0</v>
       </c>
       <c r="AE6" t="n">
-        <v>0.06472918268095451</v>
+        <v>-0</v>
       </c>
       <c r="AF6" t="n">
-        <v>-0.02627761732917523</v>
+        <v>0.04745117381651875</v>
       </c>
       <c r="AG6" t="n">
-        <v>-0</v>
+        <v>0.01241889489399559</v>
       </c>
       <c r="AH6" t="n">
         <v>0</v>
@@ -3391,46 +3391,46 @@
         <v>0</v>
       </c>
       <c r="AL6" t="n">
-        <v>-0.03517133914278665</v>
+        <v>-0.002277153390286133</v>
       </c>
       <c r="AM6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AN6" t="n">
-        <v>-0.00804822641292355</v>
+        <v>0</v>
       </c>
       <c r="AO6" t="n">
-        <v>0.005424079964931109</v>
+        <v>-0.0236038736586186</v>
       </c>
       <c r="AP6" t="n">
-        <v>-0</v>
+        <v>-0.00607513533114957</v>
       </c>
       <c r="AQ6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AR6" t="n">
         <v>0</v>
       </c>
       <c r="AS6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AT6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AU6" t="n">
-        <v>-0.1221321695383662</v>
+        <v>0.05341396926375721</v>
       </c>
       <c r="AV6" t="n">
         <v>0</v>
       </c>
       <c r="AW6" t="n">
-        <v>0.02481364218210555</v>
+        <v>0</v>
       </c>
       <c r="AX6" t="n">
-        <v>-0.01675920902109012</v>
+        <v>-0.01210765446658647</v>
       </c>
       <c r="AY6" t="n">
-        <v>0</v>
+        <v>-0.0115221761452993</v>
       </c>
       <c r="AZ6" t="n">
         <v>0</v>
@@ -3445,19 +3445,19 @@
         <v>-0</v>
       </c>
       <c r="BD6" t="n">
-        <v>-0.007634332293593799</v>
+        <v>-0.006527634654873844</v>
       </c>
       <c r="BE6" t="n">
         <v>0</v>
       </c>
       <c r="BF6" t="n">
-        <v>0.06630011866691632</v>
+        <v>0</v>
       </c>
       <c r="BG6" t="n">
-        <v>0.0123147250660468</v>
+        <v>-0.03528382965739098</v>
       </c>
       <c r="BH6" t="n">
-        <v>-0</v>
+        <v>-0.005237305750544502</v>
       </c>
       <c r="BI6" t="n">
         <v>-0</v>
@@ -3466,28 +3466,28 @@
         <v>0</v>
       </c>
       <c r="BK6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BL6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BM6" t="n">
-        <v>0.04262994706844187</v>
+        <v>0.04925292471064071</v>
       </c>
       <c r="BN6" t="n">
         <v>-0</v>
       </c>
       <c r="BO6" t="n">
-        <v>0.03299179357372777</v>
+        <v>-0</v>
       </c>
       <c r="BP6" t="n">
-        <v>0.03574478495739671</v>
+        <v>0.01598384287812647</v>
       </c>
       <c r="BQ6" t="n">
-        <v>0</v>
+        <v>0.01555462159884095</v>
       </c>
       <c r="BR6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BS6" t="n">
         <v>0</v>
@@ -3496,76 +3496,76 @@
         <v>0</v>
       </c>
       <c r="BU6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BV6" t="n">
-        <v>-0.01268214088960802</v>
+        <v>0.01381715535965055</v>
       </c>
       <c r="BW6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BX6" t="n">
-        <v>0.05658254912949227</v>
+        <v>-0</v>
       </c>
       <c r="BY6" t="n">
-        <v>-0.0121895535298678</v>
+        <v>-0.02956769536606904</v>
       </c>
       <c r="BZ6" t="n">
-        <v>0</v>
+        <v>0.01987478884447434</v>
       </c>
       <c r="CA6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CB6" t="n">
         <v>0</v>
       </c>
       <c r="CC6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CD6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CE6" t="n">
-        <v>0.03756240473140781</v>
+        <v>-0.0007376304437758888</v>
       </c>
       <c r="CF6" t="n">
         <v>-0</v>
       </c>
       <c r="CG6" t="n">
-        <v>-0.03714950458264772</v>
+        <v>0</v>
       </c>
       <c r="CH6" t="n">
-        <v>0.01229605777168055</v>
+        <v>0.0006972099360138721</v>
       </c>
       <c r="CI6" t="n">
-        <v>0</v>
+        <v>0.008089288705127005</v>
       </c>
       <c r="CJ6" t="n">
         <v>0</v>
       </c>
       <c r="CK6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CL6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CM6" t="n">
         <v>0</v>
       </c>
       <c r="CN6" t="n">
-        <v>0.03646410915926393</v>
+        <v>0.005256418262567416</v>
       </c>
       <c r="CO6" t="n">
         <v>-0</v>
       </c>
       <c r="CP6" t="n">
-        <v>-0.02805386233220681</v>
+        <v>-0</v>
       </c>
       <c r="CQ6" t="n">
-        <v>0.08297351794426286</v>
+        <v>0.01753311177417032</v>
       </c>
       <c r="CR6" t="n">
-        <v>0</v>
+        <v>-0.01660625448424183</v>
       </c>
       <c r="CS6" t="n">
         <v>0</v>
@@ -3574,109 +3574,109 @@
         <v>-0</v>
       </c>
       <c r="CU6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CV6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CW6" t="n">
-        <v>0.03908134043535861</v>
+        <v>0.007807138392368874</v>
       </c>
       <c r="CX6" t="n">
         <v>0</v>
       </c>
       <c r="CY6" t="n">
-        <v>-0.03393692923357957</v>
+        <v>0</v>
       </c>
       <c r="CZ6" t="n">
-        <v>0.003949613916351073</v>
+        <v>0.001267521328222969</v>
       </c>
       <c r="DA6" t="n">
-        <v>-0</v>
+        <v>0.006151923025770901</v>
       </c>
       <c r="DB6" t="n">
         <v>-0</v>
       </c>
       <c r="DC6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DD6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DE6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DF6" t="n">
-        <v>0.1084211130104087</v>
+        <v>-0.002302067932934519</v>
       </c>
       <c r="DG6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DH6" t="n">
-        <v>-0.01343447186447159</v>
+        <v>0</v>
       </c>
       <c r="DI6" t="n">
-        <v>-0.0002954405808252529</v>
+        <v>0.0001965281450093154</v>
       </c>
       <c r="DJ6" t="n">
-        <v>0</v>
+        <v>0.03558674865230877</v>
       </c>
       <c r="DK6" t="n">
         <v>0</v>
       </c>
       <c r="DL6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DM6" t="n">
         <v>0</v>
       </c>
       <c r="DN6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DO6" t="n">
-        <v>-0.006677129345032957</v>
+        <v>0.005972733035155777</v>
       </c>
       <c r="DP6" t="n">
         <v>0</v>
       </c>
       <c r="DQ6" t="n">
-        <v>0.002786270074957973</v>
+        <v>-0</v>
       </c>
       <c r="DR6" t="n">
-        <v>0.08062527057427998</v>
+        <v>0.03033955024633695</v>
       </c>
       <c r="DS6" t="n">
-        <v>-0</v>
+        <v>0.01072042470131592</v>
       </c>
       <c r="DT6" t="n">
         <v>0</v>
       </c>
       <c r="DU6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DV6" t="n">
         <v>-0</v>
       </c>
       <c r="DW6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DX6" t="n">
-        <v>0.01753349529130668</v>
+        <v>-0.00966380674328368</v>
       </c>
       <c r="DY6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DZ6" t="n">
-        <v>0.04419498537862041</v>
+        <v>0</v>
       </c>
       <c r="EA6" t="n">
-        <v>0.005423810360707757</v>
+        <v>-0.007042515143547892</v>
       </c>
       <c r="EB6" t="n">
-        <v>-0</v>
+        <v>-0.01421921122415507</v>
       </c>
       <c r="EC6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="ED6" t="n">
         <v>-0</v>
@@ -3685,25 +3685,25 @@
         <v>-0</v>
       </c>
       <c r="EF6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EG6" t="n">
-        <v>0.03517198894447997</v>
+        <v>0.006182345175268205</v>
       </c>
       <c r="EH6" t="n">
         <v>-0</v>
       </c>
       <c r="EI6" t="n">
-        <v>-0.05011469340408207</v>
+        <v>0</v>
       </c>
       <c r="EJ6" t="n">
-        <v>-0.05658951266353874</v>
+        <v>0.001220347905559394</v>
       </c>
       <c r="EK6" t="n">
-        <v>0</v>
+        <v>-0.007665360525104423</v>
       </c>
       <c r="EL6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EM6" t="n">
         <v>0</v>
@@ -3715,19 +3715,19 @@
         <v>0</v>
       </c>
       <c r="EP6" t="n">
-        <v>0.01700192042816305</v>
+        <v>0.001060757007181838</v>
       </c>
       <c r="EQ6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="ER6" t="n">
-        <v>0.0006086977971930685</v>
+        <v>-0</v>
       </c>
       <c r="ES6" t="n">
-        <v>0.03133241248584458</v>
+        <v>-0.02449585024724498</v>
       </c>
       <c r="ET6" t="n">
-        <v>-0</v>
+        <v>0.04000771745832816</v>
       </c>
       <c r="EU6" t="n">
         <v>-0</v>
@@ -3736,55 +3736,55 @@
         <v>0</v>
       </c>
       <c r="EW6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EX6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EY6" t="n">
-        <v>0.02895586956233753</v>
+        <v>0.009111891911496965</v>
       </c>
       <c r="EZ6" t="n">
         <v>-0</v>
       </c>
       <c r="FA6" t="n">
-        <v>-0.02909355032702069</v>
+        <v>0</v>
       </c>
       <c r="FB6" t="n">
-        <v>0.01871069658789928</v>
+        <v>-0.0003514428897889035</v>
       </c>
       <c r="FC6" t="n">
-        <v>0</v>
+        <v>0.01083619365570031</v>
       </c>
       <c r="FD6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FE6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FF6" t="n">
         <v>-0</v>
       </c>
       <c r="FG6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FH6" t="n">
-        <v>-0.03318370628247717</v>
+        <v>-8.704224322433244e-05</v>
       </c>
       <c r="FI6" t="n">
         <v>0</v>
       </c>
       <c r="FJ6" t="n">
-        <v>-0.02758634997995968</v>
+        <v>-0</v>
       </c>
       <c r="FK6" t="n">
-        <v>0.003552808675169777</v>
+        <v>-0.02059793530724213</v>
       </c>
       <c r="FL6" t="n">
-        <v>0</v>
+        <v>0.01703189754883701</v>
       </c>
       <c r="FM6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FN6" t="n">
         <v>0</v>
@@ -3793,28 +3793,28 @@
         <v>0</v>
       </c>
       <c r="FP6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FQ6" t="n">
-        <v>0.005825861399633225</v>
+        <v>-0.01028013304629756</v>
       </c>
       <c r="FR6" t="n">
         <v>0</v>
       </c>
       <c r="FS6" t="n">
-        <v>0.05122128846920151</v>
+        <v>-0</v>
       </c>
       <c r="FT6" t="n">
-        <v>-0.0003676055419025118</v>
+        <v>0.001239959569143374</v>
       </c>
       <c r="FU6" t="n">
-        <v>0</v>
+        <v>0.019147148408932</v>
       </c>
       <c r="FV6" t="n">
         <v>-0</v>
       </c>
       <c r="FW6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FX6" t="n">
         <v>0</v>
@@ -3823,25 +3823,25 @@
         <v>-0</v>
       </c>
       <c r="FZ6" t="n">
-        <v>0.03126022851309049</v>
+        <v>-0.02834582021260933</v>
       </c>
       <c r="GA6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GB6" t="n">
-        <v>0.03874120646729393</v>
+        <v>-0</v>
       </c>
       <c r="GC6" t="n">
         <v>-0</v>
       </c>
       <c r="GD6" t="n">
-        <v>0</v>
+        <v>0.006591042892524724</v>
       </c>
       <c r="GE6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GF6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GG6" t="n">
         <v>0</v>
@@ -3849,22 +3849,22 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>0.1834531496146151</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.01448132808096914</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0.1505153418074934</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.006085426115310661</v>
+        <v>-0.02530348903479894</v>
       </c>
       <c r="F7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -3873,22 +3873,22 @@
         <v>-0</v>
       </c>
       <c r="I7" t="n">
-        <v>-0</v>
+        <v>-0.03229954023722099</v>
       </c>
       <c r="J7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>0.08569597519506916</v>
       </c>
       <c r="L7" t="n">
-        <v>-0.02980554973810926</v>
+        <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>0.1219385087796757</v>
+        <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>-0.07581458426577536</v>
+        <v>-0.1047368912760724</v>
       </c>
       <c r="O7" t="n">
         <v>0</v>
@@ -3900,49 +3900,49 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>-0</v>
+        <v>-0.05103869192093132</v>
       </c>
       <c r="S7" t="n">
         <v>-0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>0.01919771833335716</v>
       </c>
       <c r="U7" t="n">
-        <v>0.003849304273220623</v>
+        <v>-0</v>
       </c>
       <c r="V7" t="n">
-        <v>-0.02032593486923077</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>-0.04632940371945104</v>
+        <v>-0.006576688860824287</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Y7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="Z7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AA7" t="n">
-        <v>0</v>
+        <v>-0.000778544395738913</v>
       </c>
       <c r="AB7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AC7" t="n">
-        <v>0</v>
+        <v>0.08051184714177007</v>
       </c>
       <c r="AD7" t="n">
-        <v>-0.002311005200914398</v>
+        <v>-0</v>
       </c>
       <c r="AE7" t="n">
-        <v>0.04218676726181481</v>
+        <v>-0</v>
       </c>
       <c r="AF7" t="n">
-        <v>-0.02081972097551997</v>
+        <v>0.02975766768356486</v>
       </c>
       <c r="AG7" t="n">
         <v>0</v>
@@ -3951,28 +3951,28 @@
         <v>0</v>
       </c>
       <c r="AI7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AJ7" t="n">
-        <v>0</v>
+        <v>0.02108054928068648</v>
       </c>
       <c r="AK7" t="n">
         <v>0</v>
       </c>
       <c r="AL7" t="n">
-        <v>0</v>
+        <v>0.04759251823643305</v>
       </c>
       <c r="AM7" t="n">
-        <v>-0.004572574377300861</v>
+        <v>0</v>
       </c>
       <c r="AN7" t="n">
-        <v>0.05943266143854947</v>
+        <v>0</v>
       </c>
       <c r="AO7" t="n">
-        <v>-0.00232873301288494</v>
+        <v>-0.02897671227156706</v>
       </c>
       <c r="AP7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AQ7" t="n">
         <v>0</v>
@@ -3981,76 +3981,76 @@
         <v>0</v>
       </c>
       <c r="AS7" t="n">
-        <v>-0</v>
+        <v>-0.0194098762454724</v>
       </c>
       <c r="AT7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AU7" t="n">
-        <v>0</v>
+        <v>0.2267780846053862</v>
       </c>
       <c r="AV7" t="n">
-        <v>-0.03189856915767529</v>
+        <v>-0</v>
       </c>
       <c r="AW7" t="n">
-        <v>0.07958112751984506</v>
+        <v>-0</v>
       </c>
       <c r="AX7" t="n">
-        <v>0.03122088821764508</v>
+        <v>0.09345464300714687</v>
       </c>
       <c r="AY7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AZ7" t="n">
         <v>0</v>
       </c>
       <c r="BA7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BB7" t="n">
-        <v>-0</v>
+        <v>-0.0008497958895909365</v>
       </c>
       <c r="BC7" t="n">
         <v>0</v>
       </c>
       <c r="BD7" t="n">
-        <v>0</v>
+        <v>-0.0345181976370155</v>
       </c>
       <c r="BE7" t="n">
-        <v>-0.002155605952966958</v>
+        <v>0</v>
       </c>
       <c r="BF7" t="n">
-        <v>0.1002033935136843</v>
+        <v>0</v>
       </c>
       <c r="BG7" t="n">
-        <v>-0.03566322754538383</v>
+        <v>-0.08311677299622233</v>
       </c>
       <c r="BH7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BI7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BJ7" t="n">
         <v>0</v>
       </c>
       <c r="BK7" t="n">
-        <v>-0</v>
+        <v>-0.00801337168845543</v>
       </c>
       <c r="BL7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BM7" t="n">
-        <v>-0</v>
+        <v>0.02181157239145136</v>
       </c>
       <c r="BN7" t="n">
-        <v>0.05623057472359148</v>
+        <v>-0</v>
       </c>
       <c r="BO7" t="n">
-        <v>0.03268845662224325</v>
+        <v>0</v>
       </c>
       <c r="BP7" t="n">
-        <v>0.08003714598649622</v>
+        <v>0.1369563829714847</v>
       </c>
       <c r="BQ7" t="n">
         <v>-0</v>
@@ -4059,25 +4059,25 @@
         <v>-0</v>
       </c>
       <c r="BS7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BT7" t="n">
-        <v>0</v>
+        <v>0.02089809592243562</v>
       </c>
       <c r="BU7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BV7" t="n">
-        <v>0</v>
+        <v>0.1686248808896383</v>
       </c>
       <c r="BW7" t="n">
-        <v>0.004946188612497092</v>
+        <v>0</v>
       </c>
       <c r="BX7" t="n">
-        <v>0.1119406248953498</v>
+        <v>-0</v>
       </c>
       <c r="BY7" t="n">
-        <v>0.05521097938043298</v>
+        <v>0.001843402113623602</v>
       </c>
       <c r="BZ7" t="n">
         <v>-0</v>
@@ -4086,25 +4086,25 @@
         <v>0</v>
       </c>
       <c r="CB7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CC7" t="n">
-        <v>-0</v>
+        <v>0.01881459863738442</v>
       </c>
       <c r="CD7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CE7" t="n">
-        <v>0</v>
+        <v>-0.0455352542482594</v>
       </c>
       <c r="CF7" t="n">
-        <v>0.01440502438354728</v>
+        <v>-0</v>
       </c>
       <c r="CG7" t="n">
-        <v>-0.060563676356375</v>
+        <v>-0</v>
       </c>
       <c r="CH7" t="n">
-        <v>0.02703420281812611</v>
+        <v>0.0009466797761744304</v>
       </c>
       <c r="CI7" t="n">
         <v>0</v>
@@ -4113,25 +4113,25 @@
         <v>-0</v>
       </c>
       <c r="CK7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CL7" t="n">
-        <v>0</v>
+        <v>0.03920780030843358</v>
       </c>
       <c r="CM7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CN7" t="n">
-        <v>0</v>
+        <v>-0.03092036293162503</v>
       </c>
       <c r="CO7" t="n">
-        <v>-0.008291953951222876</v>
+        <v>0</v>
       </c>
       <c r="CP7" t="n">
-        <v>-0.100499178069869</v>
+        <v>-0</v>
       </c>
       <c r="CQ7" t="n">
-        <v>0.001386866538650839</v>
+        <v>-0.04332456371227232</v>
       </c>
       <c r="CR7" t="n">
         <v>0</v>
@@ -4143,22 +4143,22 @@
         <v>-0</v>
       </c>
       <c r="CU7" t="n">
-        <v>0</v>
+        <v>-0.01279349963615829</v>
       </c>
       <c r="CV7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CW7" t="n">
-        <v>-0</v>
+        <v>-0.04168870561601391</v>
       </c>
       <c r="CX7" t="n">
-        <v>0.01630433341298111</v>
+        <v>0</v>
       </c>
       <c r="CY7" t="n">
-        <v>-0.04598458817110718</v>
+        <v>0</v>
       </c>
       <c r="CZ7" t="n">
-        <v>0.01686201336857041</v>
+        <v>0.008912156742622714</v>
       </c>
       <c r="DA7" t="n">
         <v>-0</v>
@@ -4167,25 +4167,25 @@
         <v>0</v>
       </c>
       <c r="DC7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DD7" t="n">
-        <v>-0</v>
+        <v>0.03460543977350412</v>
       </c>
       <c r="DE7" t="n">
         <v>0</v>
       </c>
       <c r="DF7" t="n">
-        <v>0</v>
+        <v>-0.147770312927533</v>
       </c>
       <c r="DG7" t="n">
-        <v>0.01990221140057194</v>
+        <v>-0</v>
       </c>
       <c r="DH7" t="n">
-        <v>-0.03365406659881803</v>
+        <v>-0</v>
       </c>
       <c r="DI7" t="n">
-        <v>-0.0332572789873358</v>
+        <v>0.0676737216749513</v>
       </c>
       <c r="DJ7" t="n">
         <v>-0</v>
@@ -4197,22 +4197,22 @@
         <v>0</v>
       </c>
       <c r="DM7" t="n">
-        <v>0</v>
+        <v>-0.01652399876392523</v>
       </c>
       <c r="DN7" t="n">
         <v>-0</v>
       </c>
       <c r="DO7" t="n">
-        <v>0</v>
+        <v>-0.01143803225723971</v>
       </c>
       <c r="DP7" t="n">
-        <v>-0.007021416312474524</v>
+        <v>-0</v>
       </c>
       <c r="DQ7" t="n">
-        <v>-0.02777552425031953</v>
+        <v>-0</v>
       </c>
       <c r="DR7" t="n">
-        <v>0.03471583052935538</v>
+        <v>-0.01410640580580428</v>
       </c>
       <c r="DS7" t="n">
         <v>-0</v>
@@ -4224,22 +4224,22 @@
         <v>0</v>
       </c>
       <c r="DV7" t="n">
-        <v>0</v>
+        <v>-0.02110439183138373</v>
       </c>
       <c r="DW7" t="n">
         <v>0</v>
       </c>
       <c r="DX7" t="n">
-        <v>-0</v>
+        <v>0.00398493899617621</v>
       </c>
       <c r="DY7" t="n">
-        <v>-0.02109527962507105</v>
+        <v>0</v>
       </c>
       <c r="DZ7" t="n">
-        <v>0.05688222494793506</v>
+        <v>-0</v>
       </c>
       <c r="EA7" t="n">
-        <v>-0.0241891261970637</v>
+        <v>-0.01466034343596417</v>
       </c>
       <c r="EB7" t="n">
         <v>0</v>
@@ -4251,22 +4251,22 @@
         <v>-0</v>
       </c>
       <c r="EE7" t="n">
-        <v>-0</v>
+        <v>0.01042384257912918</v>
       </c>
       <c r="EF7" t="n">
         <v>0</v>
       </c>
       <c r="EG7" t="n">
-        <v>-0</v>
+        <v>-0.0003555256258888585</v>
       </c>
       <c r="EH7" t="n">
-        <v>0.008981306854825441</v>
+        <v>0</v>
       </c>
       <c r="EI7" t="n">
-        <v>-0.04541319548033252</v>
+        <v>0</v>
       </c>
       <c r="EJ7" t="n">
-        <v>-0.02322820985623044</v>
+        <v>0.03952493229143496</v>
       </c>
       <c r="EK7" t="n">
         <v>0</v>
@@ -4278,142 +4278,142 @@
         <v>0</v>
       </c>
       <c r="EN7" t="n">
-        <v>0</v>
+        <v>0.04651012028297122</v>
       </c>
       <c r="EO7" t="n">
         <v>0</v>
       </c>
       <c r="EP7" t="n">
-        <v>0</v>
+        <v>-0.06935831244842429</v>
       </c>
       <c r="EQ7" t="n">
-        <v>0.003678879026648341</v>
+        <v>-0</v>
       </c>
       <c r="ER7" t="n">
-        <v>-0.01503107590090176</v>
+        <v>-0</v>
       </c>
       <c r="ES7" t="n">
-        <v>0.01042726458045352</v>
+        <v>-0.001642858790079652</v>
       </c>
       <c r="ET7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EU7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EV7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EW7" t="n">
-        <v>-0</v>
+        <v>0.02621514815887827</v>
       </c>
       <c r="EX7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EY7" t="n">
-        <v>0</v>
+        <v>-0.055482921966187</v>
       </c>
       <c r="EZ7" t="n">
-        <v>0.01015560530938232</v>
+        <v>-0</v>
       </c>
       <c r="FA7" t="n">
-        <v>-0.03927862037067687</v>
+        <v>-0</v>
       </c>
       <c r="FB7" t="n">
-        <v>0.02452887864226519</v>
+        <v>0.003408975273563518</v>
       </c>
       <c r="FC7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FD7" t="n">
         <v>-0</v>
       </c>
       <c r="FE7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FF7" t="n">
-        <v>0</v>
+        <v>0.02110726496964106</v>
       </c>
       <c r="FG7" t="n">
         <v>-0</v>
       </c>
       <c r="FH7" t="n">
-        <v>0</v>
+        <v>-0.04922140673439589</v>
       </c>
       <c r="FI7" t="n">
-        <v>0.003605230227748785</v>
+        <v>-0</v>
       </c>
       <c r="FJ7" t="n">
-        <v>-0.003196718818653958</v>
+        <v>0</v>
       </c>
       <c r="FK7" t="n">
-        <v>0.003962301063968927</v>
+        <v>-0.01879838269092638</v>
       </c>
       <c r="FL7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FM7" t="n">
         <v>0</v>
       </c>
       <c r="FN7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FO7" t="n">
-        <v>0</v>
+        <v>0.04774793572183478</v>
       </c>
       <c r="FP7" t="n">
         <v>0</v>
       </c>
       <c r="FQ7" t="n">
-        <v>0</v>
+        <v>-0.07775213529239468</v>
       </c>
       <c r="FR7" t="n">
-        <v>-0.002680233486293604</v>
+        <v>-0</v>
       </c>
       <c r="FS7" t="n">
-        <v>0.0302401531784154</v>
+        <v>-0</v>
       </c>
       <c r="FT7" t="n">
-        <v>0.0143291279891275</v>
+        <v>0.02073026793540261</v>
       </c>
       <c r="FU7" t="n">
         <v>0</v>
       </c>
       <c r="FV7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FW7" t="n">
         <v>-0</v>
       </c>
       <c r="FX7" t="n">
-        <v>0</v>
+        <v>0.00224028034265096</v>
       </c>
       <c r="FY7" t="n">
         <v>-0</v>
       </c>
       <c r="FZ7" t="n">
-        <v>-0</v>
+        <v>-0.07794478820272563</v>
       </c>
       <c r="GA7" t="n">
-        <v>-0.003194719732946381</v>
+        <v>0</v>
       </c>
       <c r="GB7" t="n">
-        <v>0.05787868722437239</v>
+        <v>-0</v>
       </c>
       <c r="GC7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GD7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GE7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GF7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GG7" t="n">
-        <v>-0</v>
+        <v>0.03029943215652521</v>
       </c>
     </row>
     <row r="8">
@@ -4421,13 +4421,13 @@
         <v>0</v>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>-0</v>
@@ -4448,13 +4448,13 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
         <v>-0</v>
@@ -4475,13 +4475,13 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>-0</v>
@@ -4502,13 +4502,13 @@
         <v>0</v>
       </c>
       <c r="AC8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AD8" t="n">
         <v>0</v>
       </c>
       <c r="AE8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AF8" t="n">
         <v>-0</v>
@@ -4529,13 +4529,13 @@
         <v>0</v>
       </c>
       <c r="AL8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AM8" t="n">
         <v>0</v>
       </c>
       <c r="AN8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AO8" t="n">
         <v>-0</v>
@@ -4556,13 +4556,13 @@
         <v>0</v>
       </c>
       <c r="AU8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AV8" t="n">
         <v>0</v>
       </c>
       <c r="AW8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AX8" t="n">
         <v>-0</v>
@@ -4583,13 +4583,13 @@
         <v>0</v>
       </c>
       <c r="BD8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BE8" t="n">
         <v>0</v>
       </c>
       <c r="BF8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BG8" t="n">
         <v>-0</v>
@@ -4610,13 +4610,13 @@
         <v>0</v>
       </c>
       <c r="BM8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BN8" t="n">
         <v>0</v>
       </c>
       <c r="BO8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BP8" t="n">
         <v>-0</v>
@@ -4637,13 +4637,13 @@
         <v>0</v>
       </c>
       <c r="BV8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BW8" t="n">
         <v>0</v>
       </c>
       <c r="BX8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BY8" t="n">
         <v>-0</v>
@@ -4664,13 +4664,13 @@
         <v>0</v>
       </c>
       <c r="CE8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CF8" t="n">
         <v>0</v>
       </c>
       <c r="CG8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CH8" t="n">
         <v>-0</v>
@@ -4691,13 +4691,13 @@
         <v>0</v>
       </c>
       <c r="CN8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CO8" t="n">
         <v>0</v>
       </c>
       <c r="CP8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CQ8" t="n">
         <v>-0</v>
@@ -4745,13 +4745,13 @@
         <v>0</v>
       </c>
       <c r="DF8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DG8" t="n">
         <v>0</v>
       </c>
       <c r="DH8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DI8" t="n">
         <v>-0</v>
@@ -4772,13 +4772,13 @@
         <v>0</v>
       </c>
       <c r="DO8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DP8" t="n">
         <v>0</v>
       </c>
       <c r="DQ8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DR8" t="n">
         <v>-0</v>
@@ -4826,13 +4826,13 @@
         <v>0</v>
       </c>
       <c r="EG8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EH8" t="n">
         <v>0</v>
       </c>
       <c r="EI8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EJ8" t="n">
         <v>-0</v>
@@ -4853,13 +4853,13 @@
         <v>0</v>
       </c>
       <c r="EP8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EQ8" t="n">
         <v>0</v>
       </c>
       <c r="ER8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="ES8" t="n">
         <v>-0</v>
@@ -4880,13 +4880,13 @@
         <v>0</v>
       </c>
       <c r="EY8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EZ8" t="n">
         <v>0</v>
       </c>
       <c r="FA8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FB8" t="n">
         <v>-0</v>
@@ -4907,13 +4907,13 @@
         <v>0</v>
       </c>
       <c r="FH8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FI8" t="n">
         <v>0</v>
       </c>
       <c r="FJ8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FK8" t="n">
         <v>-0</v>
@@ -4987,46 +4987,46 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>0.4525616042039332</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0.126524489754632</v>
+        <v>-0.2095715192366093</v>
       </c>
       <c r="E9" t="n">
-        <v>0.06965800571656879</v>
+        <v>-0.0007206496988728582</v>
       </c>
       <c r="F9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>-0.09213123838942372</v>
+        <v>-0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>0.2843361497167144</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M9" t="n">
-        <v>0.1076231156926325</v>
+        <v>-0.2349990485650978</v>
       </c>
       <c r="N9" t="n">
-        <v>0.007360319177258515</v>
+        <v>-0.1078920687824776</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -5035,7 +5035,7 @@
         <v>-0</v>
       </c>
       <c r="Q9" t="n">
-        <v>-0.112307977538009</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -5044,79 +5044,79 @@
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>0.05209956772404248</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="V9" t="n">
-        <v>-0.002617416927008778</v>
+        <v>-0.01016140194662555</v>
       </c>
       <c r="W9" t="n">
-        <v>-0.07079570639845141</v>
+        <v>-0.0248783133499935</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Z9" t="n">
-        <v>-0.008659661199874507</v>
+        <v>0</v>
       </c>
       <c r="AA9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AB9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AC9" t="n">
-        <v>-0</v>
+        <v>0.1957574315964463</v>
       </c>
       <c r="AD9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AE9" t="n">
-        <v>0.06809040332011992</v>
+        <v>-0.0134655659552875</v>
       </c>
       <c r="AF9" t="n">
-        <v>0.03563560957666419</v>
+        <v>0.03117353478373372</v>
       </c>
       <c r="AG9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AH9" t="n">
         <v>-0</v>
       </c>
       <c r="AI9" t="n">
-        <v>-0.02310089754676823</v>
+        <v>0</v>
       </c>
       <c r="AJ9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AK9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AL9" t="n">
-        <v>-0</v>
+        <v>0.005926184768991423</v>
       </c>
       <c r="AM9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AN9" t="n">
-        <v>0.0631905203694564</v>
+        <v>-0.06048394321124766</v>
       </c>
       <c r="AO9" t="n">
-        <v>0.05049848496965564</v>
+        <v>-0.1214589813684086</v>
       </c>
       <c r="AP9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AQ9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AR9" t="n">
-        <v>-0.007024716199650147</v>
+        <v>0</v>
       </c>
       <c r="AS9" t="n">
         <v>0</v>
@@ -5125,16 +5125,16 @@
         <v>-0</v>
       </c>
       <c r="AU9" t="n">
-        <v>-0</v>
+        <v>0.4584113511712612</v>
       </c>
       <c r="AV9" t="n">
         <v>-0</v>
       </c>
       <c r="AW9" t="n">
-        <v>0.0275380758070956</v>
+        <v>0.0313199327274358</v>
       </c>
       <c r="AX9" t="n">
-        <v>0.04892624437399067</v>
+        <v>0.2084320656771185</v>
       </c>
       <c r="AY9" t="n">
         <v>-0</v>
@@ -5143,133 +5143,133 @@
         <v>0</v>
       </c>
       <c r="BA9" t="n">
-        <v>-0.1112803722733937</v>
+        <v>0</v>
       </c>
       <c r="BB9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BC9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BD9" t="n">
-        <v>0</v>
+        <v>0.02913952701584126</v>
       </c>
       <c r="BE9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BF9" t="n">
-        <v>0.09977468910734338</v>
+        <v>-0.1101161142388824</v>
       </c>
       <c r="BG9" t="n">
-        <v>-0.009071624484408297</v>
+        <v>-0.1936414251106675</v>
       </c>
       <c r="BH9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BI9" t="n">
         <v>-0</v>
       </c>
       <c r="BJ9" t="n">
-        <v>0.01391471529378827</v>
+        <v>0</v>
       </c>
       <c r="BK9" t="n">
         <v>0</v>
       </c>
       <c r="BL9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BM9" t="n">
-        <v>0</v>
+        <v>0.238396114713154</v>
       </c>
       <c r="BN9" t="n">
         <v>-0</v>
       </c>
       <c r="BO9" t="n">
-        <v>0.01230366410093152</v>
+        <v>0.03622714819140422</v>
       </c>
       <c r="BP9" t="n">
-        <v>0.009839428723836023</v>
+        <v>0.2187228750737418</v>
       </c>
       <c r="BQ9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BR9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BS9" t="n">
-        <v>0.03572184473409912</v>
+        <v>-0</v>
       </c>
       <c r="BT9" t="n">
         <v>-0</v>
       </c>
       <c r="BU9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BV9" t="n">
-        <v>-0</v>
+        <v>0.2930846034555494</v>
       </c>
       <c r="BW9" t="n">
         <v>0</v>
       </c>
       <c r="BX9" t="n">
-        <v>0.09168248998679777</v>
+        <v>-0.008684557079408598</v>
       </c>
       <c r="BY9" t="n">
-        <v>-0.03002763155377629</v>
+        <v>0.05522302104868417</v>
       </c>
       <c r="BZ9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CA9" t="n">
         <v>0</v>
       </c>
       <c r="CB9" t="n">
-        <v>-0.1426714717265424</v>
+        <v>0</v>
       </c>
       <c r="CC9" t="n">
         <v>0</v>
       </c>
       <c r="CD9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CE9" t="n">
-        <v>-0</v>
+        <v>-0.1117100547358331</v>
       </c>
       <c r="CF9" t="n">
         <v>-0</v>
       </c>
       <c r="CG9" t="n">
-        <v>-0.0306539487922974</v>
+        <v>0.008912384477767021</v>
       </c>
       <c r="CH9" t="n">
-        <v>0.0175040299548058</v>
+        <v>-0.02407903334681239</v>
       </c>
       <c r="CI9" t="n">
         <v>0</v>
       </c>
       <c r="CJ9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CK9" t="n">
-        <v>0.02538376629872348</v>
+        <v>-0</v>
       </c>
       <c r="CL9" t="n">
         <v>-0</v>
       </c>
       <c r="CM9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CN9" t="n">
-        <v>0</v>
+        <v>-0.1061874716683512</v>
       </c>
       <c r="CO9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CP9" t="n">
-        <v>-0.07101960161475375</v>
+        <v>-0.1755839663857172</v>
       </c>
       <c r="CQ9" t="n">
-        <v>0.1462404106612447</v>
+        <v>-0.07716816255648695</v>
       </c>
       <c r="CR9" t="n">
         <v>0</v>
@@ -5278,79 +5278,79 @@
         <v>-0</v>
       </c>
       <c r="CT9" t="n">
-        <v>0.01520243866896471</v>
+        <v>-0</v>
       </c>
       <c r="CU9" t="n">
         <v>-0</v>
       </c>
       <c r="CV9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CW9" t="n">
-        <v>0</v>
+        <v>-0.07167951026623487</v>
       </c>
       <c r="CX9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CY9" t="n">
-        <v>-0.02850448757223153</v>
+        <v>0.03726018908417419</v>
       </c>
       <c r="CZ9" t="n">
-        <v>0.01525871651763115</v>
+        <v>0.001221891375365541</v>
       </c>
       <c r="DA9" t="n">
         <v>-0</v>
       </c>
       <c r="DB9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DC9" t="n">
-        <v>0.02549732303456602</v>
+        <v>0</v>
       </c>
       <c r="DD9" t="n">
         <v>0</v>
       </c>
       <c r="DE9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DF9" t="n">
-        <v>0</v>
+        <v>-0.01477003629271221</v>
       </c>
       <c r="DG9" t="n">
         <v>0</v>
       </c>
       <c r="DH9" t="n">
-        <v>-0.0128598948028379</v>
+        <v>0.05004308960866083</v>
       </c>
       <c r="DI9" t="n">
-        <v>-0.06366508142420384</v>
+        <v>0.05205470799975383</v>
       </c>
       <c r="DJ9" t="n">
         <v>0</v>
       </c>
       <c r="DK9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DL9" t="n">
-        <v>-0.06134906256674071</v>
+        <v>0</v>
       </c>
       <c r="DM9" t="n">
         <v>0</v>
       </c>
       <c r="DN9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DO9" t="n">
-        <v>0</v>
+        <v>-0.100284143284993</v>
       </c>
       <c r="DP9" t="n">
         <v>0</v>
       </c>
       <c r="DQ9" t="n">
-        <v>0.009910308120947897</v>
+        <v>-0.02551314661329419</v>
       </c>
       <c r="DR9" t="n">
-        <v>0.01661779236581444</v>
+        <v>-0.01995869567128755</v>
       </c>
       <c r="DS9" t="n">
         <v>0</v>
@@ -5359,61 +5359,61 @@
         <v>0</v>
       </c>
       <c r="DU9" t="n">
-        <v>0.02849894792394698</v>
+        <v>-0</v>
       </c>
       <c r="DV9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DW9" t="n">
         <v>0</v>
       </c>
       <c r="DX9" t="n">
-        <v>-0</v>
+        <v>-0.01800837970583423</v>
       </c>
       <c r="DY9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DZ9" t="n">
-        <v>-0.003178826083914746</v>
+        <v>-0.03364050558838224</v>
       </c>
       <c r="EA9" t="n">
-        <v>-0.01972524919987179</v>
+        <v>-0.009477513605028624</v>
       </c>
       <c r="EB9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EC9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="ED9" t="n">
-        <v>0.01556240960809806</v>
+        <v>-0</v>
       </c>
       <c r="EE9" t="n">
         <v>-0</v>
       </c>
       <c r="EF9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EG9" t="n">
-        <v>0</v>
+        <v>-0.02864114949901417</v>
       </c>
       <c r="EH9" t="n">
         <v>-0</v>
       </c>
       <c r="EI9" t="n">
-        <v>-0.1062289366739454</v>
+        <v>0.03574097723898039</v>
       </c>
       <c r="EJ9" t="n">
-        <v>-0.0156790197918455</v>
+        <v>0.05990818958923565</v>
       </c>
       <c r="EK9" t="n">
         <v>0</v>
       </c>
       <c r="EL9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EM9" t="n">
-        <v>0.04971961751187245</v>
+        <v>-0</v>
       </c>
       <c r="EN9" t="n">
         <v>-0</v>
@@ -5422,133 +5422,133 @@
         <v>0</v>
       </c>
       <c r="EP9" t="n">
-        <v>0</v>
+        <v>-0.117795648951158</v>
       </c>
       <c r="EQ9" t="n">
         <v>-0</v>
       </c>
       <c r="ER9" t="n">
-        <v>-0.03459955243647281</v>
+        <v>-0.06518878772820227</v>
       </c>
       <c r="ES9" t="n">
-        <v>0.03933117323849099</v>
+        <v>0.0069341892011472</v>
       </c>
       <c r="ET9" t="n">
         <v>-0</v>
       </c>
       <c r="EU9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EV9" t="n">
-        <v>0.05188500209699384</v>
+        <v>0</v>
       </c>
       <c r="EW9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EX9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EY9" t="n">
-        <v>-0</v>
+        <v>-0.08284407016374885</v>
       </c>
       <c r="EZ9" t="n">
         <v>-0</v>
       </c>
       <c r="FA9" t="n">
-        <v>-0.0346444169906111</v>
+        <v>0.02169186238053448</v>
       </c>
       <c r="FB9" t="n">
-        <v>0.02005325640826586</v>
+        <v>0.02920428139046604</v>
       </c>
       <c r="FC9" t="n">
         <v>0</v>
       </c>
       <c r="FD9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FE9" t="n">
-        <v>0.04266462451437626</v>
+        <v>0</v>
       </c>
       <c r="FF9" t="n">
         <v>-0</v>
       </c>
       <c r="FG9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FH9" t="n">
-        <v>-0</v>
+        <v>0.04531936573155553</v>
       </c>
       <c r="FI9" t="n">
         <v>0</v>
       </c>
       <c r="FJ9" t="n">
-        <v>-0.007494016968996373</v>
+        <v>0.04935948847862767</v>
       </c>
       <c r="FK9" t="n">
-        <v>-0.02690972019960066</v>
+        <v>0.01403760502928386</v>
       </c>
       <c r="FL9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FM9" t="n">
         <v>-0</v>
       </c>
       <c r="FN9" t="n">
-        <v>0.01641322656010087</v>
+        <v>0</v>
       </c>
       <c r="FO9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FP9" t="n">
         <v>-0</v>
       </c>
       <c r="FQ9" t="n">
-        <v>0</v>
+        <v>-0.09568911711101095</v>
       </c>
       <c r="FR9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FS9" t="n">
-        <v>-0.0314282791567812</v>
+        <v>-0.09561647183709027</v>
       </c>
       <c r="FT9" t="n">
-        <v>0.1529914251063206</v>
+        <v>0.1391517482203208</v>
       </c>
       <c r="FU9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FV9" t="n">
         <v>-0</v>
       </c>
       <c r="FW9" t="n">
-        <v>-0.01462125929266278</v>
+        <v>-0</v>
       </c>
       <c r="FX9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FY9" t="n">
         <v>-0</v>
       </c>
       <c r="FZ9" t="n">
-        <v>-0</v>
+        <v>-0.05375569386018141</v>
       </c>
       <c r="GA9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GB9" t="n">
-        <v>-0.0005325519038850655</v>
+        <v>-0.09778277086168013</v>
       </c>
       <c r="GC9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GD9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GE9" t="n">
         <v>-0</v>
       </c>
       <c r="GF9" t="n">
-        <v>0.009363156902971743</v>
+        <v>0</v>
       </c>
       <c r="GG9" t="n">
         <v>-0</v>
@@ -5559,79 +5559,79 @@
         <v>0</v>
       </c>
       <c r="B10" t="n">
-        <v>-0</v>
+        <v>1.40434735419614</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0.3078917618078197</v>
+        <v>-0.2746927272634067</v>
       </c>
       <c r="E10" t="n">
-        <v>0.04562302196059088</v>
+        <v>-0.1923304221497075</v>
       </c>
       <c r="F10" t="n">
-        <v>0.0005436294249388941</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H10" t="n">
-        <v>-0.08117775432611506</v>
+        <v>0.01273381484807137</v>
       </c>
       <c r="I10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>-0</v>
+        <v>0.8810205909955722</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M10" t="n">
-        <v>0.2743087166211848</v>
+        <v>-0.3156532833873869</v>
       </c>
       <c r="N10" t="n">
-        <v>-0.06532448754419144</v>
+        <v>-0.3597844008534927</v>
       </c>
       <c r="O10" t="n">
-        <v>-0.03323273315187859</v>
+        <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Q10" t="n">
-        <v>-0.1310238152430018</v>
+        <v>-0.004667686302193341</v>
       </c>
       <c r="R10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>0.2231583204934445</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="V10" t="n">
-        <v>-0.01789460767924398</v>
+        <v>-0.1234457677730412</v>
       </c>
       <c r="W10" t="n">
-        <v>-0.09456853325603466</v>
+        <v>-0.05078104297452805</v>
       </c>
       <c r="X10" t="n">
-        <v>0.01379824119603489</v>
+        <v>-0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Z10" t="n">
-        <v>-0.03545796674230983</v>
+        <v>0.01643073257284963</v>
       </c>
       <c r="AA10" t="n">
         <v>0</v>
@@ -5640,52 +5640,52 @@
         <v>-0</v>
       </c>
       <c r="AC10" t="n">
-        <v>0</v>
+        <v>0.1985237331644376</v>
       </c>
       <c r="AD10" t="n">
         <v>0</v>
       </c>
       <c r="AE10" t="n">
-        <v>0.1066845055244563</v>
+        <v>0.03294567828258774</v>
       </c>
       <c r="AF10" t="n">
-        <v>-0.06071722891067032</v>
+        <v>-0.1556958380053927</v>
       </c>
       <c r="AG10" t="n">
-        <v>0.03925138686824092</v>
+        <v>0</v>
       </c>
       <c r="AH10" t="n">
         <v>-0</v>
       </c>
       <c r="AI10" t="n">
-        <v>0.04298875436090629</v>
+        <v>0.005865709986457513</v>
       </c>
       <c r="AJ10" t="n">
         <v>0</v>
       </c>
       <c r="AK10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AL10" t="n">
-        <v>-0</v>
+        <v>0.06644471403928286</v>
       </c>
       <c r="AM10" t="n">
         <v>-0</v>
       </c>
       <c r="AN10" t="n">
-        <v>0.110195555705591</v>
+        <v>-0.1172293621897696</v>
       </c>
       <c r="AO10" t="n">
-        <v>0.04779905952418463</v>
+        <v>-0.1469245281305787</v>
       </c>
       <c r="AP10" t="n">
-        <v>0.03164237794803427</v>
+        <v>0</v>
       </c>
       <c r="AQ10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AR10" t="n">
-        <v>0.001853774954830459</v>
+        <v>0.06187555353873133</v>
       </c>
       <c r="AS10" t="n">
         <v>0</v>
@@ -5694,25 +5694,25 @@
         <v>-0</v>
       </c>
       <c r="AU10" t="n">
-        <v>-0</v>
+        <v>1.111871234401161</v>
       </c>
       <c r="AV10" t="n">
         <v>-0</v>
       </c>
       <c r="AW10" t="n">
-        <v>0.1026457315548724</v>
+        <v>0.06375594977947749</v>
       </c>
       <c r="AX10" t="n">
-        <v>0.1049704941007086</v>
+        <v>0.2556228118438695</v>
       </c>
       <c r="AY10" t="n">
-        <v>0.05727436036091492</v>
+        <v>-0</v>
       </c>
       <c r="AZ10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BA10" t="n">
-        <v>-0.07345236331597045</v>
+        <v>0.204001450534866</v>
       </c>
       <c r="BB10" t="n">
         <v>0</v>
@@ -5721,79 +5721,79 @@
         <v>0</v>
       </c>
       <c r="BD10" t="n">
-        <v>0</v>
+        <v>0.2159859754030614</v>
       </c>
       <c r="BE10" t="n">
         <v>0</v>
       </c>
       <c r="BF10" t="n">
-        <v>0.1829491454205023</v>
+        <v>-0.1927100573298218</v>
       </c>
       <c r="BG10" t="n">
-        <v>-0.1204144217403224</v>
+        <v>-0.5947656677696518</v>
       </c>
       <c r="BH10" t="n">
-        <v>-3.677746186729599e-11</v>
+        <v>0</v>
       </c>
       <c r="BI10" t="n">
         <v>-0</v>
       </c>
       <c r="BJ10" t="n">
-        <v>0.01700274028786122</v>
+        <v>-7.402500480402608e-11</v>
       </c>
       <c r="BK10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BL10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BM10" t="n">
-        <v>0</v>
+        <v>0.5504826297622997</v>
       </c>
       <c r="BN10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BO10" t="n">
-        <v>0.01358685265716332</v>
+        <v>0.2744363850612495</v>
       </c>
       <c r="BP10" t="n">
-        <v>0.05790325755988619</v>
+        <v>0.3180745279211847</v>
       </c>
       <c r="BQ10" t="n">
-        <v>-0.03324700989669014</v>
+        <v>-0</v>
       </c>
       <c r="BR10" t="n">
         <v>-0</v>
       </c>
       <c r="BS10" t="n">
-        <v>0.06861566393454746</v>
+        <v>0.08781687709896276</v>
       </c>
       <c r="BT10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BU10" t="n">
         <v>-0</v>
       </c>
       <c r="BV10" t="n">
-        <v>-0</v>
+        <v>0.731713251873168</v>
       </c>
       <c r="BW10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BX10" t="n">
-        <v>0.1747668280561011</v>
+        <v>0.08285379673986194</v>
       </c>
       <c r="BY10" t="n">
-        <v>0.02819450080660977</v>
+        <v>0.06401264151047729</v>
       </c>
       <c r="BZ10" t="n">
-        <v>0.02931532862549127</v>
+        <v>-0</v>
       </c>
       <c r="CA10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CB10" t="n">
-        <v>-0.08888041831544999</v>
+        <v>0.02472883111732285</v>
       </c>
       <c r="CC10" t="n">
         <v>0</v>
@@ -5802,214 +5802,214 @@
         <v>-0</v>
       </c>
       <c r="CE10" t="n">
-        <v>0</v>
+        <v>-0.3073041286946662</v>
       </c>
       <c r="CF10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CG10" t="n">
-        <v>-0.07952153956917447</v>
+        <v>0.01161449595119119</v>
       </c>
       <c r="CH10" t="n">
-        <v>-0.003191015293558347</v>
+        <v>-0.06943727537952916</v>
       </c>
       <c r="CI10" t="n">
-        <v>-0.01587767445224638</v>
+        <v>-0</v>
       </c>
       <c r="CJ10" t="n">
         <v>-0</v>
       </c>
       <c r="CK10" t="n">
-        <v>0.02215330026955432</v>
+        <v>-0.0107506542579479</v>
       </c>
       <c r="CL10" t="n">
         <v>0</v>
       </c>
       <c r="CM10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CN10" t="n">
-        <v>0</v>
+        <v>-0.1980116337499614</v>
       </c>
       <c r="CO10" t="n">
         <v>0</v>
       </c>
       <c r="CP10" t="n">
-        <v>-0.05943420969468561</v>
+        <v>-0.2682195238786826</v>
       </c>
       <c r="CQ10" t="n">
-        <v>0.121202819686817</v>
+        <v>-0.1545499334811495</v>
       </c>
       <c r="CR10" t="n">
-        <v>-0.03021338954580359</v>
+        <v>0</v>
       </c>
       <c r="CS10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CT10" t="n">
-        <v>-0.03575832435917302</v>
+        <v>0.07424497360481973</v>
       </c>
       <c r="CU10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CV10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CW10" t="n">
-        <v>0</v>
+        <v>-0.2369816694955902</v>
       </c>
       <c r="CX10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CY10" t="n">
-        <v>-0.06000179160947904</v>
+        <v>0.09601744750063285</v>
       </c>
       <c r="CZ10" t="n">
-        <v>-0.00227382971572592</v>
+        <v>-0.08793782087166731</v>
       </c>
       <c r="DA10" t="n">
-        <v>0.01057340095822892</v>
+        <v>0</v>
       </c>
       <c r="DB10" t="n">
         <v>0</v>
       </c>
       <c r="DC10" t="n">
-        <v>0.01016446223565281</v>
+        <v>-0.01453542573232243</v>
       </c>
       <c r="DD10" t="n">
         <v>-0</v>
       </c>
       <c r="DE10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DF10" t="n">
-        <v>0</v>
+        <v>-0.2672100139244124</v>
       </c>
       <c r="DG10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DH10" t="n">
-        <v>-0.07409469771640764</v>
+        <v>0.06951062577391338</v>
       </c>
       <c r="DI10" t="n">
-        <v>-0.04756687381450189</v>
+        <v>0.01021119817543879</v>
       </c>
       <c r="DJ10" t="n">
-        <v>0.0003353505782052156</v>
+        <v>0</v>
       </c>
       <c r="DK10" t="n">
         <v>0</v>
       </c>
       <c r="DL10" t="n">
-        <v>-0.03620272737965974</v>
+        <v>0.02375494147771005</v>
       </c>
       <c r="DM10" t="n">
         <v>0</v>
       </c>
       <c r="DN10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DO10" t="n">
-        <v>0</v>
+        <v>-0.214822269571879</v>
       </c>
       <c r="DP10" t="n">
         <v>0</v>
       </c>
       <c r="DQ10" t="n">
-        <v>0.04332296783092601</v>
+        <v>0.01284780929059091</v>
       </c>
       <c r="DR10" t="n">
-        <v>-0.09624888699595828</v>
+        <v>-0.08561871147084112</v>
       </c>
       <c r="DS10" t="n">
-        <v>-0.04365280298161676</v>
+        <v>0</v>
       </c>
       <c r="DT10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DU10" t="n">
-        <v>-0.03898255350598642</v>
+        <v>0.1347339966269558</v>
       </c>
       <c r="DV10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DW10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DX10" t="n">
-        <v>-0</v>
+        <v>-0.07505988501181697</v>
       </c>
       <c r="DY10" t="n">
         <v>0</v>
       </c>
       <c r="DZ10" t="n">
-        <v>0.009259138489529646</v>
+        <v>-0.03252723109543783</v>
       </c>
       <c r="EA10" t="n">
-        <v>-0.02525077426027929</v>
+        <v>-0.2597783224171851</v>
       </c>
       <c r="EB10" t="n">
-        <v>0.05615594735655956</v>
+        <v>0</v>
       </c>
       <c r="EC10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="ED10" t="n">
-        <v>0.04991052832316681</v>
+        <v>0.05983533164884421</v>
       </c>
       <c r="EE10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EF10" t="n">
         <v>-0</v>
       </c>
       <c r="EG10" t="n">
-        <v>-0</v>
+        <v>-0.1943339201569239</v>
       </c>
       <c r="EH10" t="n">
         <v>-0</v>
       </c>
       <c r="EI10" t="n">
-        <v>-0.1864082765560864</v>
+        <v>-0.02999930360168831</v>
       </c>
       <c r="EJ10" t="n">
-        <v>-0.01773634640934849</v>
+        <v>0.02889585271730435</v>
       </c>
       <c r="EK10" t="n">
-        <v>-0.007674607375222331</v>
+        <v>-0</v>
       </c>
       <c r="EL10" t="n">
         <v>-0</v>
       </c>
       <c r="EM10" t="n">
-        <v>0.01001919763567554</v>
+        <v>0.03768355476022561</v>
       </c>
       <c r="EN10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EO10" t="n">
         <v>0</v>
       </c>
       <c r="EP10" t="n">
-        <v>-0</v>
+        <v>-0.24387606178247</v>
       </c>
       <c r="EQ10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="ER10" t="n">
-        <v>-0.05231777873320465</v>
+        <v>0.1085330712501782</v>
       </c>
       <c r="ES10" t="n">
-        <v>0.02480578130173478</v>
+        <v>-0.1603611781910579</v>
       </c>
       <c r="ET10" t="n">
-        <v>0.1020212617764503</v>
+        <v>-0</v>
       </c>
       <c r="EU10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EV10" t="n">
-        <v>-0.02166373777538895</v>
+        <v>-0.1348873207002306</v>
       </c>
       <c r="EW10" t="n">
         <v>-0</v>
@@ -6018,52 +6018,52 @@
         <v>-0</v>
       </c>
       <c r="EY10" t="n">
-        <v>0</v>
+        <v>-0.2560760082727601</v>
       </c>
       <c r="EZ10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FA10" t="n">
-        <v>-0.06538444437204112</v>
+        <v>0.05714347264563182</v>
       </c>
       <c r="FB10" t="n">
-        <v>0.006655679954893723</v>
+        <v>-0.02650379642203263</v>
       </c>
       <c r="FC10" t="n">
-        <v>0.009319205440302054</v>
+        <v>-0</v>
       </c>
       <c r="FD10" t="n">
         <v>-0</v>
       </c>
       <c r="FE10" t="n">
-        <v>0.02756816848683761</v>
+        <v>-0.01750968347530383</v>
       </c>
       <c r="FF10" t="n">
         <v>0</v>
       </c>
       <c r="FG10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FH10" t="n">
-        <v>0</v>
+        <v>-0.02489328163575895</v>
       </c>
       <c r="FI10" t="n">
         <v>-0</v>
       </c>
       <c r="FJ10" t="n">
-        <v>-0.06281977746504717</v>
+        <v>-0.147345484935715</v>
       </c>
       <c r="FK10" t="n">
-        <v>0.07151167911503241</v>
+        <v>-0.09107903377315339</v>
       </c>
       <c r="FL10" t="n">
-        <v>-0.02543294458326634</v>
+        <v>0</v>
       </c>
       <c r="FM10" t="n">
         <v>-0</v>
       </c>
       <c r="FN10" t="n">
-        <v>-0.001245406016417642</v>
+        <v>0.004500819176213483</v>
       </c>
       <c r="FO10" t="n">
         <v>0</v>
@@ -6072,25 +6072,25 @@
         <v>0</v>
       </c>
       <c r="FQ10" t="n">
-        <v>0</v>
+        <v>-0.2105743494839237</v>
       </c>
       <c r="FR10" t="n">
         <v>0</v>
       </c>
       <c r="FS10" t="n">
-        <v>-0.05800322935878616</v>
+        <v>-0.1955568602357961</v>
       </c>
       <c r="FT10" t="n">
-        <v>0.06143347810813171</v>
+        <v>-0.2236231643255221</v>
       </c>
       <c r="FU10" t="n">
-        <v>-0.09519626388326249</v>
+        <v>-0</v>
       </c>
       <c r="FV10" t="n">
         <v>-0</v>
       </c>
       <c r="FW10" t="n">
-        <v>0.05261582406136259</v>
+        <v>-0.1382752547903637</v>
       </c>
       <c r="FX10" t="n">
         <v>0</v>
@@ -6099,25 +6099,25 @@
         <v>-0</v>
       </c>
       <c r="FZ10" t="n">
-        <v>-0</v>
+        <v>-0.1442304624216527</v>
       </c>
       <c r="GA10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GB10" t="n">
-        <v>0.1052217731938842</v>
+        <v>-0.1051998949251333</v>
       </c>
       <c r="GC10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GD10" t="n">
-        <v>-0.003599296280458698</v>
+        <v>-0</v>
       </c>
       <c r="GE10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GF10" t="n">
-        <v>-0.01936904600366843</v>
+        <v>0.1287593793242446</v>
       </c>
       <c r="GG10" t="n">
         <v>-0</v>
@@ -6128,19 +6128,19 @@
         <v>0</v>
       </c>
       <c r="B11" t="n">
-        <v>-0.1035529914724588</v>
+        <v>0.3311740214047476</v>
       </c>
       <c r="C11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0.2272544898734584</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0.04585198857635596</v>
+        <v>-0.07841148363124359</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>-0.3617152387031586</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -6155,73 +6155,73 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>-0.07381480187004767</v>
+        <v>0.2842572047208688</v>
       </c>
       <c r="L11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>0.1974875179765673</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0.004301078951608367</v>
+        <v>-0.07309789223131173</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>-0.3380230453620474</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="R11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>-0</v>
       </c>
       <c r="T11" t="n">
-        <v>-0.01219493033753163</v>
+        <v>0.03306195982265273</v>
       </c>
       <c r="U11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>-0.03399273037498231</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>-0.09196498920741907</v>
+        <v>-0.02037249780373158</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>0.001943583326315395</v>
       </c>
       <c r="Y11" t="n">
         <v>-0</v>
       </c>
       <c r="Z11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AA11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AB11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AC11" t="n">
-        <v>-0.04810764933008955</v>
+        <v>0.0421461716095435</v>
       </c>
       <c r="AD11" t="n">
         <v>0</v>
       </c>
       <c r="AE11" t="n">
-        <v>0.06538014753272968</v>
+        <v>-0</v>
       </c>
       <c r="AF11" t="n">
-        <v>-0.07514609981961365</v>
+        <v>0.002606785900232764</v>
       </c>
       <c r="AG11" t="n">
-        <v>0</v>
+        <v>-0.01181233025982084</v>
       </c>
       <c r="AH11" t="n">
         <v>-0</v>
@@ -6230,79 +6230,79 @@
         <v>-0</v>
       </c>
       <c r="AJ11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AK11" t="n">
         <v>0</v>
       </c>
       <c r="AL11" t="n">
-        <v>-0.01503152634105534</v>
+        <v>0.04997121231415386</v>
       </c>
       <c r="AM11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AN11" t="n">
-        <v>0.02371665803966537</v>
+        <v>0</v>
       </c>
       <c r="AO11" t="n">
-        <v>-0.0200006971212658</v>
+        <v>-0.009735079260320998</v>
       </c>
       <c r="AP11" t="n">
-        <v>-0</v>
+        <v>-0.05571700436251398</v>
       </c>
       <c r="AQ11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AR11" t="n">
         <v>-0</v>
       </c>
       <c r="AS11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AT11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AU11" t="n">
-        <v>-0.04949850244294084</v>
+        <v>0.2519273917613636</v>
       </c>
       <c r="AV11" t="n">
         <v>-0</v>
       </c>
       <c r="AW11" t="n">
-        <v>0.06082789652991757</v>
+        <v>0</v>
       </c>
       <c r="AX11" t="n">
-        <v>0.03285655872254697</v>
+        <v>0.01569699780960623</v>
       </c>
       <c r="AY11" t="n">
-        <v>0</v>
+        <v>-0.09010855627469896</v>
       </c>
       <c r="AZ11" t="n">
         <v>0</v>
       </c>
       <c r="BA11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BB11" t="n">
         <v>0</v>
       </c>
       <c r="BC11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BD11" t="n">
-        <v>-0.02264839545857709</v>
+        <v>0.1135099069960811</v>
       </c>
       <c r="BE11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BF11" t="n">
-        <v>0.1291907006260428</v>
+        <v>0</v>
       </c>
       <c r="BG11" t="n">
-        <v>-0.04303674628197273</v>
+        <v>-0.119286972494967</v>
       </c>
       <c r="BH11" t="n">
-        <v>-0</v>
+        <v>-0.1747615295122278</v>
       </c>
       <c r="BI11" t="n">
         <v>-0</v>
@@ -6311,79 +6311,79 @@
         <v>0</v>
       </c>
       <c r="BK11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BL11" t="n">
         <v>-0</v>
       </c>
       <c r="BM11" t="n">
-        <v>0.04188192186169575</v>
+        <v>0.1732452522112836</v>
       </c>
       <c r="BN11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BO11" t="n">
-        <v>0.01369935489904199</v>
+        <v>-0</v>
       </c>
       <c r="BP11" t="n">
-        <v>0.003585495379293792</v>
+        <v>0.08703888648989755</v>
       </c>
       <c r="BQ11" t="n">
-        <v>0</v>
+        <v>0.02075405342517977</v>
       </c>
       <c r="BR11" t="n">
         <v>-0</v>
       </c>
       <c r="BS11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BT11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BU11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BV11" t="n">
-        <v>-0.02303825031820539</v>
+        <v>0.1611521119862398</v>
       </c>
       <c r="BW11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BX11" t="n">
-        <v>0.1017240599394302</v>
+        <v>0</v>
       </c>
       <c r="BY11" t="n">
-        <v>-0.03027630345977564</v>
+        <v>0.00623100833578922</v>
       </c>
       <c r="BZ11" t="n">
-        <v>0</v>
+        <v>-0.06186600130724969</v>
       </c>
       <c r="CA11" t="n">
         <v>-0</v>
       </c>
       <c r="CB11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CC11" t="n">
         <v>0</v>
       </c>
       <c r="CD11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CE11" t="n">
-        <v>0.02601978810516736</v>
+        <v>-0.05713351304847241</v>
       </c>
       <c r="CF11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CG11" t="n">
-        <v>-0.05346692806333468</v>
+        <v>-0</v>
       </c>
       <c r="CH11" t="n">
-        <v>0.0065930001425759</v>
+        <v>0.003217794029603526</v>
       </c>
       <c r="CI11" t="n">
-        <v>0</v>
+        <v>0.07334354640099744</v>
       </c>
       <c r="CJ11" t="n">
         <v>-0</v>
@@ -6395,49 +6395,49 @@
         <v>0</v>
       </c>
       <c r="CM11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CN11" t="n">
-        <v>0.0217240154346643</v>
+        <v>-0.07044021655175409</v>
       </c>
       <c r="CO11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CP11" t="n">
-        <v>-0.0445683196049018</v>
+        <v>0</v>
       </c>
       <c r="CQ11" t="n">
-        <v>0.0989022592906488</v>
+        <v>-0.03222949797640067</v>
       </c>
       <c r="CR11" t="n">
-        <v>0</v>
+        <v>-0.02861847300483875</v>
       </c>
       <c r="CS11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CT11" t="n">
         <v>-0</v>
       </c>
       <c r="CU11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CV11" t="n">
         <v>-0</v>
       </c>
       <c r="CW11" t="n">
-        <v>0.03107125345703807</v>
+        <v>-0.03780528810257929</v>
       </c>
       <c r="CX11" t="n">
         <v>-0</v>
       </c>
       <c r="CY11" t="n">
-        <v>-0.04099982628088741</v>
+        <v>0</v>
       </c>
       <c r="CZ11" t="n">
-        <v>0.004086167212024642</v>
+        <v>0.006700348586245428</v>
       </c>
       <c r="DA11" t="n">
-        <v>-0</v>
+        <v>0.07023683174835775</v>
       </c>
       <c r="DB11" t="n">
         <v>0</v>
@@ -6446,25 +6446,25 @@
         <v>-0</v>
       </c>
       <c r="DD11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DE11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DF11" t="n">
-        <v>0.04361289257441071</v>
+        <v>-0.05668013563421229</v>
       </c>
       <c r="DG11" t="n">
         <v>-0</v>
       </c>
       <c r="DH11" t="n">
-        <v>-0.0291084202415777</v>
+        <v>-0</v>
       </c>
       <c r="DI11" t="n">
-        <v>-0.04983058979576505</v>
+        <v>0.03331809078865954</v>
       </c>
       <c r="DJ11" t="n">
-        <v>0</v>
+        <v>0.007658424426626217</v>
       </c>
       <c r="DK11" t="n">
         <v>0</v>
@@ -6473,109 +6473,109 @@
         <v>0</v>
       </c>
       <c r="DM11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DN11" t="n">
         <v>-0</v>
       </c>
       <c r="DO11" t="n">
-        <v>0.02356194214978377</v>
+        <v>-0.04762386112843522</v>
       </c>
       <c r="DP11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DQ11" t="n">
-        <v>-0.005641168784184199</v>
+        <v>-0</v>
       </c>
       <c r="DR11" t="n">
-        <v>0.0145203871808971</v>
+        <v>0.03425384188258739</v>
       </c>
       <c r="DS11" t="n">
-        <v>0</v>
+        <v>-0.04202691227419766</v>
       </c>
       <c r="DT11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DU11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DV11" t="n">
         <v>0</v>
       </c>
       <c r="DW11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DX11" t="n">
-        <v>0.02833613542402175</v>
+        <v>-0.005715892090499139</v>
       </c>
       <c r="DY11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DZ11" t="n">
-        <v>0.04159299041444205</v>
+        <v>-0</v>
       </c>
       <c r="EA11" t="n">
-        <v>-0.01323254315409388</v>
+        <v>-0.01792313735040392</v>
       </c>
       <c r="EB11" t="n">
-        <v>0</v>
+        <v>0.003385811091893396</v>
       </c>
       <c r="EC11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="ED11" t="n">
         <v>-0</v>
       </c>
       <c r="EE11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EF11" t="n">
         <v>0</v>
       </c>
       <c r="EG11" t="n">
-        <v>0.02179475805387271</v>
+        <v>-0.007195419934785674</v>
       </c>
       <c r="EH11" t="n">
         <v>0</v>
       </c>
       <c r="EI11" t="n">
-        <v>-0.06659101511187716</v>
+        <v>-0</v>
       </c>
       <c r="EJ11" t="n">
-        <v>-0.009479134141269956</v>
+        <v>0.0002420695405342115</v>
       </c>
       <c r="EK11" t="n">
-        <v>-0</v>
+        <v>0.05931819074327837</v>
       </c>
       <c r="EL11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EM11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EN11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EO11" t="n">
         <v>0</v>
       </c>
       <c r="EP11" t="n">
-        <v>0.02641543066954099</v>
+        <v>-0.008049231521300807</v>
       </c>
       <c r="EQ11" t="n">
         <v>0</v>
       </c>
       <c r="ER11" t="n">
-        <v>0.0005834591922215904</v>
+        <v>-0</v>
       </c>
       <c r="ES11" t="n">
-        <v>0.02810444807836446</v>
+        <v>0.01605283363813044</v>
       </c>
       <c r="ET11" t="n">
-        <v>-0</v>
+        <v>0.06097569062578709</v>
       </c>
       <c r="EU11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EV11" t="n">
         <v>0</v>
@@ -6587,19 +6587,19 @@
         <v>-0</v>
       </c>
       <c r="EY11" t="n">
-        <v>0.02245882311382259</v>
+        <v>-0.03354442531295541</v>
       </c>
       <c r="EZ11" t="n">
         <v>0</v>
       </c>
       <c r="FA11" t="n">
-        <v>-0.04045227770872433</v>
+        <v>-0</v>
       </c>
       <c r="FB11" t="n">
-        <v>0.01150088247308634</v>
+        <v>0.008417622215874766</v>
       </c>
       <c r="FC11" t="n">
-        <v>0</v>
+        <v>0.07347999510831311</v>
       </c>
       <c r="FD11" t="n">
         <v>-0</v>
@@ -6608,52 +6608,52 @@
         <v>0</v>
       </c>
       <c r="FF11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FG11" t="n">
         <v>-0</v>
       </c>
       <c r="FH11" t="n">
-        <v>0.0189228039744985</v>
+        <v>-0.03468044562529789</v>
       </c>
       <c r="FI11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FJ11" t="n">
-        <v>-0.04991838336523542</v>
+        <v>-0</v>
       </c>
       <c r="FK11" t="n">
-        <v>-0.0008411124148259454</v>
+        <v>-0.03357610539364666</v>
       </c>
       <c r="FL11" t="n">
-        <v>0</v>
+        <v>0.0439070771799483</v>
       </c>
       <c r="FM11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FN11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FO11" t="n">
         <v>0</v>
       </c>
       <c r="FP11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FQ11" t="n">
-        <v>-0.002228149930048559</v>
+        <v>0.0195448485744537</v>
       </c>
       <c r="FR11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FS11" t="n">
-        <v>0.05336595009166694</v>
+        <v>-0</v>
       </c>
       <c r="FT11" t="n">
-        <v>0.05486803187687914</v>
+        <v>-0.01094710576993349</v>
       </c>
       <c r="FU11" t="n">
-        <v>0</v>
+        <v>0.04895390601343189</v>
       </c>
       <c r="FV11" t="n">
         <v>-0</v>
@@ -6662,78 +6662,78 @@
         <v>-0</v>
       </c>
       <c r="FX11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FY11" t="n">
         <v>-0</v>
       </c>
       <c r="FZ11" t="n">
-        <v>0.03003374223538055</v>
+        <v>-0.06286557142615731</v>
       </c>
       <c r="GA11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GB11" t="n">
-        <v>0.04620840673718807</v>
+        <v>-0</v>
       </c>
       <c r="GC11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GD11" t="n">
-        <v>-0</v>
+        <v>-0.04532711341646742</v>
       </c>
       <c r="GE11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GF11" t="n">
         <v>-0</v>
       </c>
       <c r="GG11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>0.5474600694180309</v>
       </c>
       <c r="C12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>0.3979039635418439</v>
+        <v>-0.3142296359355014</v>
       </c>
       <c r="E12" t="n">
-        <v>0.007408957385940291</v>
+        <v>-0.1111768161991776</v>
       </c>
       <c r="F12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>-0.165045937343697</v>
+        <v>-0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>0.3893306473248145</v>
       </c>
       <c r="L12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0.3838884315532811</v>
+        <v>-0.2823483688390314</v>
       </c>
       <c r="N12" t="n">
-        <v>-0.1229380518061476</v>
+        <v>-0.1892434353101057</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -6742,61 +6742,61 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>-0.2200217534502107</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>0.1512831097811523</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="V12" t="n">
-        <v>0.004558467970757049</v>
+        <v>0.00110870302838553</v>
       </c>
       <c r="W12" t="n">
-        <v>-0.1442111746005482</v>
+        <v>0.06007289297403032</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Z12" t="n">
-        <v>-0.07849823697232769</v>
+        <v>-0</v>
       </c>
       <c r="AA12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AB12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AC12" t="n">
-        <v>-0</v>
+        <v>0.1886684673510678</v>
       </c>
       <c r="AD12" t="n">
         <v>-0</v>
       </c>
       <c r="AE12" t="n">
-        <v>0.1061094625811935</v>
+        <v>0.01357904732796818</v>
       </c>
       <c r="AF12" t="n">
-        <v>0.002152232442532349</v>
+        <v>0.03319466694514887</v>
       </c>
       <c r="AG12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AH12" t="n">
         <v>-0</v>
       </c>
       <c r="AI12" t="n">
-        <v>0.04439579244123648</v>
+        <v>-0</v>
       </c>
       <c r="AJ12" t="n">
         <v>-0</v>
@@ -6805,25 +6805,25 @@
         <v>0</v>
       </c>
       <c r="AL12" t="n">
-        <v>-0</v>
+        <v>0.04671097522548482</v>
       </c>
       <c r="AM12" t="n">
         <v>-0</v>
       </c>
       <c r="AN12" t="n">
-        <v>0.1130012598838013</v>
+        <v>-0.04224725894781146</v>
       </c>
       <c r="AO12" t="n">
-        <v>0.04484319539838753</v>
+        <v>-0.07855889116374386</v>
       </c>
       <c r="AP12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AQ12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AR12" t="n">
-        <v>-0.027661355351801</v>
+        <v>0</v>
       </c>
       <c r="AS12" t="n">
         <v>0</v>
@@ -6832,16 +6832,16 @@
         <v>-0</v>
       </c>
       <c r="AU12" t="n">
-        <v>-0</v>
+        <v>0.4362605965615064</v>
       </c>
       <c r="AV12" t="n">
         <v>-0</v>
       </c>
       <c r="AW12" t="n">
-        <v>0.12767452050601</v>
+        <v>0.01116493910601764</v>
       </c>
       <c r="AX12" t="n">
-        <v>-0.007940043153885749</v>
+        <v>0.1103748880583686</v>
       </c>
       <c r="AY12" t="n">
         <v>-0</v>
@@ -6850,214 +6850,214 @@
         <v>0</v>
       </c>
       <c r="BA12" t="n">
-        <v>-0.145828793036521</v>
+        <v>0</v>
       </c>
       <c r="BB12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BC12" t="n">
         <v>0</v>
       </c>
       <c r="BD12" t="n">
-        <v>0</v>
+        <v>0.05318127362939452</v>
       </c>
       <c r="BE12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BF12" t="n">
-        <v>0.2200370067437188</v>
+        <v>-0.1422247541599586</v>
       </c>
       <c r="BG12" t="n">
-        <v>-0.01888831477636384</v>
+        <v>-0.3001211825181319</v>
       </c>
       <c r="BH12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BI12" t="n">
         <v>-0</v>
       </c>
       <c r="BJ12" t="n">
-        <v>0.0002039544868461909</v>
+        <v>0</v>
       </c>
       <c r="BK12" t="n">
         <v>0</v>
       </c>
       <c r="BL12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BM12" t="n">
-        <v>-0</v>
+        <v>0.1748662949493205</v>
       </c>
       <c r="BN12" t="n">
         <v>0</v>
       </c>
       <c r="BO12" t="n">
-        <v>0.01796047296185418</v>
+        <v>0.03219698751746026</v>
       </c>
       <c r="BP12" t="n">
-        <v>-0.006606850306862624</v>
+        <v>0.1371008931958247</v>
       </c>
       <c r="BQ12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BR12" t="n">
         <v>-0</v>
       </c>
       <c r="BS12" t="n">
-        <v>0.1121083059804312</v>
+        <v>-0</v>
       </c>
       <c r="BT12" t="n">
         <v>-0</v>
       </c>
       <c r="BU12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BV12" t="n">
-        <v>-0</v>
+        <v>0.2833000504897013</v>
       </c>
       <c r="BW12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BX12" t="n">
-        <v>0.17910078184926</v>
+        <v>0.001723980831630413</v>
       </c>
       <c r="BY12" t="n">
-        <v>-0.04610442945623167</v>
+        <v>0.09468900979588295</v>
       </c>
       <c r="BZ12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CA12" t="n">
         <v>0</v>
       </c>
       <c r="CB12" t="n">
-        <v>-0.1830533386228926</v>
+        <v>-0</v>
       </c>
       <c r="CC12" t="n">
         <v>0</v>
       </c>
       <c r="CD12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CE12" t="n">
-        <v>-0</v>
+        <v>-0.1273220614900842</v>
       </c>
       <c r="CF12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CG12" t="n">
-        <v>-0.1008127131825728</v>
+        <v>0.0202097623910751</v>
       </c>
       <c r="CH12" t="n">
-        <v>0.03549095377712808</v>
+        <v>-0.02096460529397082</v>
       </c>
       <c r="CI12" t="n">
         <v>0</v>
       </c>
       <c r="CJ12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CK12" t="n">
-        <v>0.05488224355009742</v>
+        <v>0</v>
       </c>
       <c r="CL12" t="n">
         <v>-0</v>
       </c>
       <c r="CM12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CN12" t="n">
-        <v>-0</v>
+        <v>-0.08970371142584772</v>
       </c>
       <c r="CO12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CP12" t="n">
-        <v>-0.1065722973617067</v>
+        <v>-0.2018668871578718</v>
       </c>
       <c r="CQ12" t="n">
-        <v>0.1478764333696391</v>
+        <v>-0.07757213382219579</v>
       </c>
       <c r="CR12" t="n">
         <v>0</v>
       </c>
       <c r="CS12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CT12" t="n">
-        <v>0.07678460642365373</v>
+        <v>-0</v>
       </c>
       <c r="CU12" t="n">
         <v>-0</v>
       </c>
       <c r="CV12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CW12" t="n">
-        <v>0</v>
+        <v>-0.08014842277705304</v>
       </c>
       <c r="CX12" t="n">
         <v>-0</v>
       </c>
       <c r="CY12" t="n">
-        <v>-0.09148624338064669</v>
+        <v>0.05134592866777485</v>
       </c>
       <c r="CZ12" t="n">
-        <v>0.03490188950266838</v>
+        <v>-0.01693548257390847</v>
       </c>
       <c r="DA12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DB12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DC12" t="n">
-        <v>0.05365717725411961</v>
+        <v>0</v>
       </c>
       <c r="DD12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DE12" t="n">
         <v>0</v>
       </c>
       <c r="DF12" t="n">
-        <v>0</v>
+        <v>-0.09142721608241981</v>
       </c>
       <c r="DG12" t="n">
         <v>0</v>
       </c>
       <c r="DH12" t="n">
-        <v>-0.0412802963631778</v>
+        <v>0.0434009129480203</v>
       </c>
       <c r="DI12" t="n">
-        <v>-0.1397856211966058</v>
+        <v>0.04075313634378745</v>
       </c>
       <c r="DJ12" t="n">
         <v>0</v>
       </c>
       <c r="DK12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DL12" t="n">
-        <v>-0.02132845517561977</v>
+        <v>0</v>
       </c>
       <c r="DM12" t="n">
         <v>0</v>
       </c>
       <c r="DN12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DO12" t="n">
-        <v>0</v>
+        <v>-0.09824345125328092</v>
       </c>
       <c r="DP12" t="n">
         <v>0</v>
       </c>
       <c r="DQ12" t="n">
-        <v>0.009656463958109901</v>
+        <v>0.05107184560423659</v>
       </c>
       <c r="DR12" t="n">
-        <v>-0.01240910167193536</v>
+        <v>-0.06061105047193494</v>
       </c>
       <c r="DS12" t="n">
         <v>0</v>
@@ -7066,7 +7066,7 @@
         <v>0</v>
       </c>
       <c r="DU12" t="n">
-        <v>-0.01222302847034094</v>
+        <v>0</v>
       </c>
       <c r="DV12" t="n">
         <v>0</v>
@@ -7075,25 +7075,25 @@
         <v>0</v>
       </c>
       <c r="DX12" t="n">
-        <v>-0</v>
+        <v>0.01808506948855686</v>
       </c>
       <c r="DY12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DZ12" t="n">
-        <v>0.02969076207962038</v>
+        <v>0.07678395769587991</v>
       </c>
       <c r="EA12" t="n">
-        <v>-0.06870597910179986</v>
+        <v>-0.02840548314993743</v>
       </c>
       <c r="EB12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EC12" t="n">
         <v>-0</v>
       </c>
       <c r="ED12" t="n">
-        <v>-0.04789284834253872</v>
+        <v>-0</v>
       </c>
       <c r="EE12" t="n">
         <v>-0</v>
@@ -7102,133 +7102,133 @@
         <v>-0</v>
       </c>
       <c r="EG12" t="n">
-        <v>-0</v>
+        <v>-0.04676898778567689</v>
       </c>
       <c r="EH12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EI12" t="n">
-        <v>-0.1918825287868935</v>
+        <v>0.06289169684395203</v>
       </c>
       <c r="EJ12" t="n">
-        <v>-0.05304435795507564</v>
+        <v>0.09501474258472511</v>
       </c>
       <c r="EK12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EL12" t="n">
         <v>-0</v>
       </c>
       <c r="EM12" t="n">
-        <v>0.07947950364496185</v>
+        <v>-0</v>
       </c>
       <c r="EN12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EO12" t="n">
         <v>0</v>
       </c>
       <c r="EP12" t="n">
-        <v>-0</v>
+        <v>-0.086895913684837</v>
       </c>
       <c r="EQ12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="ER12" t="n">
-        <v>-0.05614766693028461</v>
+        <v>0.0506738221600419</v>
       </c>
       <c r="ES12" t="n">
-        <v>0.03433965085199066</v>
+        <v>0.04396634470939179</v>
       </c>
       <c r="ET12" t="n">
         <v>-0</v>
       </c>
       <c r="EU12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EV12" t="n">
-        <v>-0.05106237107415474</v>
+        <v>0</v>
       </c>
       <c r="EW12" t="n">
         <v>-0</v>
       </c>
       <c r="EX12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EY12" t="n">
-        <v>-0</v>
+        <v>-0.09178082317257336</v>
       </c>
       <c r="EZ12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FA12" t="n">
-        <v>-0.08880313827747732</v>
+        <v>0.04418820513863073</v>
       </c>
       <c r="FB12" t="n">
-        <v>0.03565679165800206</v>
+        <v>0.005697035011316018</v>
       </c>
       <c r="FC12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FD12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FE12" t="n">
-        <v>0.06847301007729006</v>
+        <v>0</v>
       </c>
       <c r="FF12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FG12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FH12" t="n">
-        <v>0</v>
+        <v>0.02548647476953748</v>
       </c>
       <c r="FI12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FJ12" t="n">
-        <v>-0.06262964699788622</v>
+        <v>0.07504655734713678</v>
       </c>
       <c r="FK12" t="n">
-        <v>0.05341465872018489</v>
+        <v>-0.06329610171058175</v>
       </c>
       <c r="FL12" t="n">
         <v>0</v>
       </c>
       <c r="FM12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FN12" t="n">
-        <v>0.04390720824272496</v>
+        <v>0</v>
       </c>
       <c r="FO12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FP12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FQ12" t="n">
-        <v>-0</v>
+        <v>-0.06261040991692036</v>
       </c>
       <c r="FR12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FS12" t="n">
-        <v>-0.05411531347559461</v>
+        <v>-0.09405001315469029</v>
       </c>
       <c r="FT12" t="n">
-        <v>0.1201826349265231</v>
+        <v>0.05780427000402248</v>
       </c>
       <c r="FU12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FV12" t="n">
         <v>-0</v>
       </c>
       <c r="FW12" t="n">
-        <v>0.0735203229746392</v>
+        <v>0</v>
       </c>
       <c r="FX12" t="n">
         <v>0</v>
@@ -7237,54 +7237,54 @@
         <v>-0</v>
       </c>
       <c r="FZ12" t="n">
-        <v>-0</v>
+        <v>-0.01664828258603311</v>
       </c>
       <c r="GA12" t="n">
         <v>-0</v>
       </c>
       <c r="GB12" t="n">
-        <v>0.0487296134304074</v>
+        <v>-0.07512935962109221</v>
       </c>
       <c r="GC12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GD12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GE12" t="n">
         <v>-0</v>
       </c>
       <c r="GF12" t="n">
-        <v>0.00275164442127404</v>
+        <v>0</v>
       </c>
       <c r="GG12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="B13" t="n">
-        <v>1.017151131222253</v>
+        <v>-0.5585706087508591</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.7411831658400605</v>
+        <v>-0</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.01522753930156999</v>
+        <v>0.305037794545877</v>
       </c>
       <c r="F13" t="n">
-        <v>-0</v>
+        <v>1.230148246554264</v>
       </c>
       <c r="G13" t="n">
         <v>-0</v>
       </c>
       <c r="H13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>-0</v>
@@ -7293,25 +7293,25 @@
         <v>-0</v>
       </c>
       <c r="K13" t="n">
-        <v>1.034773449511702</v>
+        <v>-0.4386883047183827</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M13" t="n">
-        <v>-0.5586324518371912</v>
+        <v>-0</v>
       </c>
       <c r="N13" t="n">
-        <v>0.2463002240430572</v>
+        <v>0.0579478752331526</v>
       </c>
       <c r="O13" t="n">
-        <v>-0</v>
+        <v>1.079889317997603</v>
       </c>
       <c r="P13" t="n">
         <v>-0</v>
       </c>
       <c r="Q13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
         <v>-0</v>
@@ -7320,19 +7320,19 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0.1248799598612174</v>
+        <v>0.01639976991250501</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="V13" t="n">
-        <v>0.170042284170013</v>
+        <v>-0</v>
       </c>
       <c r="W13" t="n">
-        <v>0.6863548138408464</v>
+        <v>0.3409987658774473</v>
       </c>
       <c r="X13" t="n">
-        <v>-0</v>
+        <v>0.1452850152033824</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -7344,22 +7344,22 @@
         <v>-0</v>
       </c>
       <c r="AB13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AC13" t="n">
-        <v>0.234211655655972</v>
+        <v>-0.02272724667646395</v>
       </c>
       <c r="AD13" t="n">
         <v>-0</v>
       </c>
       <c r="AE13" t="n">
-        <v>-0.3359421043358184</v>
+        <v>0</v>
       </c>
       <c r="AF13" t="n">
-        <v>0.05465575897738606</v>
+        <v>-0.08199118274164136</v>
       </c>
       <c r="AG13" t="n">
-        <v>0</v>
+        <v>0.08217418998600391</v>
       </c>
       <c r="AH13" t="n">
         <v>-0</v>
@@ -7374,46 +7374,46 @@
         <v>-0</v>
       </c>
       <c r="AL13" t="n">
-        <v>0.1196287237569555</v>
+        <v>-0.04480995386979574</v>
       </c>
       <c r="AM13" t="n">
         <v>0</v>
       </c>
       <c r="AN13" t="n">
-        <v>-0.001928957631272926</v>
+        <v>-0</v>
       </c>
       <c r="AO13" t="n">
-        <v>0.04197971819192154</v>
+        <v>-0.04080987087811062</v>
       </c>
       <c r="AP13" t="n">
-        <v>0</v>
+        <v>0.1144064361780784</v>
       </c>
       <c r="AQ13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AR13" t="n">
         <v>0</v>
       </c>
       <c r="AS13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AT13" t="n">
         <v>-0</v>
       </c>
       <c r="AU13" t="n">
-        <v>0.670267595769935</v>
+        <v>-0.2444691259638775</v>
       </c>
       <c r="AV13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AW13" t="n">
-        <v>-0.1282159789931145</v>
+        <v>-0</v>
       </c>
       <c r="AX13" t="n">
-        <v>0.0534707009951772</v>
+        <v>0.3253292734102067</v>
       </c>
       <c r="AY13" t="n">
-        <v>-0</v>
+        <v>0.6049166431062241</v>
       </c>
       <c r="AZ13" t="n">
         <v>-0</v>
@@ -7428,25 +7428,25 @@
         <v>0</v>
       </c>
       <c r="BD13" t="n">
-        <v>0.2023876724262389</v>
+        <v>-0.255980599125687</v>
       </c>
       <c r="BE13" t="n">
         <v>-0</v>
       </c>
       <c r="BF13" t="n">
-        <v>-0.3704246939996209</v>
+        <v>-0</v>
       </c>
       <c r="BG13" t="n">
-        <v>0.1172990292737862</v>
+        <v>0.08461084736840797</v>
       </c>
       <c r="BH13" t="n">
-        <v>0</v>
+        <v>0.2786879197571853</v>
       </c>
       <c r="BI13" t="n">
         <v>0</v>
       </c>
       <c r="BJ13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BK13" t="n">
         <v>0</v>
@@ -7455,19 +7455,19 @@
         <v>0</v>
       </c>
       <c r="BM13" t="n">
-        <v>-0.1774205859081198</v>
+        <v>-0.1502027507153685</v>
       </c>
       <c r="BN13" t="n">
         <v>0</v>
       </c>
       <c r="BO13" t="n">
-        <v>-0.170483312717862</v>
+        <v>-0</v>
       </c>
       <c r="BP13" t="n">
-        <v>0.03876631977637146</v>
+        <v>-0.006028538269777613</v>
       </c>
       <c r="BQ13" t="n">
-        <v>-0</v>
+        <v>-0.009110929867189938</v>
       </c>
       <c r="BR13" t="n">
         <v>0</v>
@@ -7479,49 +7479,49 @@
         <v>-0</v>
       </c>
       <c r="BU13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BV13" t="n">
-        <v>0.2055061735402457</v>
+        <v>-0.2481060087505141</v>
       </c>
       <c r="BW13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BX13" t="n">
-        <v>-0.3377981690585208</v>
+        <v>-0</v>
       </c>
       <c r="BY13" t="n">
-        <v>0.306838416549049</v>
+        <v>0.22858321582877</v>
       </c>
       <c r="BZ13" t="n">
-        <v>0</v>
+        <v>0.510617173158064</v>
       </c>
       <c r="CA13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CB13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CC13" t="n">
         <v>-0</v>
       </c>
       <c r="CD13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CE13" t="n">
-        <v>-0.2918985912844747</v>
+        <v>0.09748766879597667</v>
       </c>
       <c r="CF13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CG13" t="n">
-        <v>0.158568302248786</v>
+        <v>0</v>
       </c>
       <c r="CH13" t="n">
-        <v>-0.06616125425709371</v>
+        <v>-0.0740025584352472</v>
       </c>
       <c r="CI13" t="n">
-        <v>-0</v>
+        <v>-0.2419269696073282</v>
       </c>
       <c r="CJ13" t="n">
         <v>0</v>
@@ -7536,46 +7536,46 @@
         <v>-0</v>
       </c>
       <c r="CN13" t="n">
-        <v>-0.2412280899727299</v>
+        <v>-0.02446734916787508</v>
       </c>
       <c r="CO13" t="n">
         <v>0</v>
       </c>
       <c r="CP13" t="n">
-        <v>0.1056957221830406</v>
+        <v>0</v>
       </c>
       <c r="CQ13" t="n">
-        <v>-0.4373902257599194</v>
+        <v>-0.3138544615957214</v>
       </c>
       <c r="CR13" t="n">
-        <v>-0</v>
+        <v>-0.03682940341286094</v>
       </c>
       <c r="CS13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CT13" t="n">
         <v>0</v>
       </c>
       <c r="CU13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CV13" t="n">
         <v>0</v>
       </c>
       <c r="CW13" t="n">
-        <v>-0.2697867681973634</v>
+        <v>0.07137955580753041</v>
       </c>
       <c r="CX13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CY13" t="n">
-        <v>0.1658171885569947</v>
+        <v>-0</v>
       </c>
       <c r="CZ13" t="n">
-        <v>-0.06880255618741586</v>
+        <v>-0.07330210157298124</v>
       </c>
       <c r="DA13" t="n">
-        <v>0</v>
+        <v>-0.2355289612982539</v>
       </c>
       <c r="DB13" t="n">
         <v>-0</v>
@@ -7584,58 +7584,58 @@
         <v>0</v>
       </c>
       <c r="DD13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DE13" t="n">
         <v>-0</v>
       </c>
       <c r="DF13" t="n">
-        <v>-0.2686530707964019</v>
+        <v>-0.02817029938590767</v>
       </c>
       <c r="DG13" t="n">
         <v>0</v>
       </c>
       <c r="DH13" t="n">
-        <v>-0.03646523404578267</v>
+        <v>0</v>
       </c>
       <c r="DI13" t="n">
-        <v>0.1106332745376555</v>
+        <v>-0.177788429645574</v>
       </c>
       <c r="DJ13" t="n">
-        <v>-0</v>
+        <v>-0.03896905466079046</v>
       </c>
       <c r="DK13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DL13" t="n">
         <v>-0</v>
       </c>
       <c r="DM13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DN13" t="n">
         <v>-0</v>
       </c>
       <c r="DO13" t="n">
-        <v>-0.09299991619809024</v>
+        <v>-0.07722137972246332</v>
       </c>
       <c r="DP13" t="n">
         <v>-0</v>
       </c>
       <c r="DQ13" t="n">
-        <v>0.05571773227402405</v>
+        <v>0</v>
       </c>
       <c r="DR13" t="n">
-        <v>-0.2785742873680269</v>
+        <v>-0.1438351912647222</v>
       </c>
       <c r="DS13" t="n">
-        <v>-0</v>
+        <v>-0.1362276682903147</v>
       </c>
       <c r="DT13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DU13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DV13" t="n">
         <v>0</v>
@@ -7644,19 +7644,19 @@
         <v>0</v>
       </c>
       <c r="DX13" t="n">
-        <v>-0.1412019748308742</v>
+        <v>-0.03710225754049851</v>
       </c>
       <c r="DY13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DZ13" t="n">
-        <v>-0.1162226052450043</v>
+        <v>-0</v>
       </c>
       <c r="EA13" t="n">
-        <v>0.03304268783075266</v>
+        <v>-0.08004489403221751</v>
       </c>
       <c r="EB13" t="n">
-        <v>0</v>
+        <v>-0.1576237667861878</v>
       </c>
       <c r="EC13" t="n">
         <v>0</v>
@@ -7665,28 +7665,28 @@
         <v>0</v>
       </c>
       <c r="EE13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EF13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EG13" t="n">
-        <v>-0.241304957067898</v>
+        <v>0.1322020367527788</v>
       </c>
       <c r="EH13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EI13" t="n">
-        <v>0.3131719333874817</v>
+        <v>-0</v>
       </c>
       <c r="EJ13" t="n">
-        <v>0.1781546706820144</v>
+        <v>-0.1189175944029144</v>
       </c>
       <c r="EK13" t="n">
-        <v>-0</v>
+        <v>-0.1667599425875176</v>
       </c>
       <c r="EL13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EM13" t="n">
         <v>-0</v>
@@ -7695,22 +7695,22 @@
         <v>0</v>
       </c>
       <c r="EO13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EP13" t="n">
-        <v>-0.1323379926473088</v>
+        <v>0.04892910907308666</v>
       </c>
       <c r="EQ13" t="n">
         <v>-0</v>
       </c>
       <c r="ER13" t="n">
-        <v>-0.1468961894053247</v>
+        <v>-0</v>
       </c>
       <c r="ES13" t="n">
-        <v>-0.08781664311671576</v>
+        <v>-0.08046491078043658</v>
       </c>
       <c r="ET13" t="n">
-        <v>-0</v>
+        <v>-0.1238000760681661</v>
       </c>
       <c r="EU13" t="n">
         <v>0</v>
@@ -7725,22 +7725,22 @@
         <v>-0</v>
       </c>
       <c r="EY13" t="n">
-        <v>-0.271237509718277</v>
+        <v>0.06896271472077815</v>
       </c>
       <c r="EZ13" t="n">
         <v>-0</v>
       </c>
       <c r="FA13" t="n">
-        <v>0.1597084957680185</v>
+        <v>0</v>
       </c>
       <c r="FB13" t="n">
-        <v>-0.1072616301854487</v>
+        <v>-0.1333757948638803</v>
       </c>
       <c r="FC13" t="n">
-        <v>-0</v>
+        <v>-0.2211982836320849</v>
       </c>
       <c r="FD13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FE13" t="n">
         <v>-0</v>
@@ -7749,22 +7749,22 @@
         <v>0</v>
       </c>
       <c r="FG13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FH13" t="n">
-        <v>0.1813502371238569</v>
+        <v>0.0824769277555908</v>
       </c>
       <c r="FI13" t="n">
         <v>-0</v>
       </c>
       <c r="FJ13" t="n">
-        <v>0.250147896546656</v>
+        <v>0</v>
       </c>
       <c r="FK13" t="n">
-        <v>-0.05510041652482334</v>
+        <v>-0.06698771764917452</v>
       </c>
       <c r="FL13" t="n">
-        <v>-0</v>
+        <v>0.0477941058298848</v>
       </c>
       <c r="FM13" t="n">
         <v>0</v>
@@ -7776,22 +7776,22 @@
         <v>-0</v>
       </c>
       <c r="FP13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FQ13" t="n">
-        <v>-0.006158070507491575</v>
+        <v>-0.03901540708230322</v>
       </c>
       <c r="FR13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FS13" t="n">
-        <v>-0.01380877227257629</v>
+        <v>0</v>
       </c>
       <c r="FT13" t="n">
-        <v>-0.1233283171353296</v>
+        <v>-0.1726368784344654</v>
       </c>
       <c r="FU13" t="n">
-        <v>-0</v>
+        <v>0.05873442334438549</v>
       </c>
       <c r="FV13" t="n">
         <v>0</v>
@@ -7800,51 +7800,51 @@
         <v>0</v>
       </c>
       <c r="FX13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FY13" t="n">
         <v>0</v>
       </c>
       <c r="FZ13" t="n">
-        <v>-0.1885538104180033</v>
+        <v>-0.07054578186206231</v>
       </c>
       <c r="GA13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GB13" t="n">
-        <v>-0.08656886849895649</v>
+        <v>-0</v>
       </c>
       <c r="GC13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GD13" t="n">
-        <v>-0</v>
+        <v>-8.911127609833761e-05</v>
       </c>
       <c r="GE13" t="n">
         <v>0</v>
       </c>
       <c r="GF13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GG13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>-0.002793292262742343</v>
+        <v>0.001124989522622425</v>
       </c>
       <c r="B14" t="n">
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0.3133759879974851</v>
+        <v>0.1486044598255142</v>
       </c>
       <c r="E14" t="n">
-        <v>-0.2104143893546003</v>
+        <v>-0.1273781967433796</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -7856,22 +7856,22 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J14" t="n">
-        <v>0.002021485294085806</v>
+        <v>0.01175756419475885</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>0.3515469247876482</v>
+        <v>0.07713646637712979</v>
       </c>
       <c r="N14" t="n">
-        <v>-0.2890419711314354</v>
+        <v>-0.1479104651983602</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
@@ -7883,37 +7883,37 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="S14" t="n">
-        <v>0.0448066910438983</v>
+        <v>0.02585305269176804</v>
       </c>
       <c r="T14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0.1860988855508832</v>
+        <v>-0.07859451321429367</v>
       </c>
       <c r="W14" t="n">
-        <v>-0.06786509239131912</v>
+        <v>-0.01125640965887103</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Y14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="Z14" t="n">
         <v>-0</v>
       </c>
       <c r="AA14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AB14" t="n">
-        <v>0.0008125263592645005</v>
+        <v>0.0889781603272696</v>
       </c>
       <c r="AC14" t="n">
         <v>0</v>
@@ -7922,16 +7922,16 @@
         <v>0</v>
       </c>
       <c r="AE14" t="n">
-        <v>-0.005792914909512648</v>
+        <v>0.0923330417826031</v>
       </c>
       <c r="AF14" t="n">
-        <v>0.007758872687918124</v>
+        <v>0.09023998354104427</v>
       </c>
       <c r="AG14" t="n">
         <v>-0</v>
       </c>
       <c r="AH14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AI14" t="n">
         <v>-0</v>
@@ -7940,52 +7940,52 @@
         <v>0</v>
       </c>
       <c r="AK14" t="n">
-        <v>-0.07600447310808593</v>
+        <v>0.04791506985794316</v>
       </c>
       <c r="AL14" t="n">
         <v>-0</v>
       </c>
       <c r="AM14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AN14" t="n">
-        <v>0.1471700026405713</v>
+        <v>0.01902116456392708</v>
       </c>
       <c r="AO14" t="n">
-        <v>-0.01461897146517883</v>
+        <v>0.0429206006035336</v>
       </c>
       <c r="AP14" t="n">
         <v>-0</v>
       </c>
       <c r="AQ14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AR14" t="n">
         <v>-0</v>
       </c>
       <c r="AS14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AT14" t="n">
-        <v>-0.04372089996953258</v>
+        <v>0.01090408673582049</v>
       </c>
       <c r="AU14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AV14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AW14" t="n">
-        <v>0.03208276416082412</v>
+        <v>0.004345820832091814</v>
       </c>
       <c r="AX14" t="n">
-        <v>-0.03420882097730193</v>
+        <v>-0.1342668615451029</v>
       </c>
       <c r="AY14" t="n">
         <v>-0</v>
       </c>
       <c r="AZ14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BA14" t="n">
         <v>0</v>
@@ -7994,22 +7994,22 @@
         <v>0</v>
       </c>
       <c r="BC14" t="n">
-        <v>0.01388013251499268</v>
+        <v>-0.07144544498884932</v>
       </c>
       <c r="BD14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BE14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BF14" t="n">
-        <v>0.2073633033371148</v>
+        <v>-0.02620040164494168</v>
       </c>
       <c r="BG14" t="n">
-        <v>-0.18550878733066</v>
+        <v>0.06404054338065179</v>
       </c>
       <c r="BH14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BI14" t="n">
         <v>-0</v>
@@ -8018,22 +8018,22 @@
         <v>-0</v>
       </c>
       <c r="BK14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BL14" t="n">
-        <v>0.02134502814362062</v>
+        <v>-0.04210517973425053</v>
       </c>
       <c r="BM14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BN14" t="n">
         <v>0</v>
       </c>
       <c r="BO14" t="n">
-        <v>0.003710248189561391</v>
+        <v>-0.09047894229518726</v>
       </c>
       <c r="BP14" t="n">
-        <v>0.01717655249580438</v>
+        <v>-0.106944975261004</v>
       </c>
       <c r="BQ14" t="n">
         <v>0</v>
@@ -8042,28 +8042,28 @@
         <v>0</v>
       </c>
       <c r="BS14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BT14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BU14" t="n">
-        <v>-0.1128864451771672</v>
+        <v>0.03525699571751496</v>
       </c>
       <c r="BV14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BW14" t="n">
         <v>0</v>
       </c>
       <c r="BX14" t="n">
-        <v>0.1198580096636887</v>
+        <v>-0.053622043665989</v>
       </c>
       <c r="BY14" t="n">
-        <v>-0.1732227872742194</v>
+        <v>-0.0892084166160886</v>
       </c>
       <c r="BZ14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CA14" t="n">
         <v>0</v>
@@ -8072,10 +8072,10 @@
         <v>0</v>
       </c>
       <c r="CC14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CD14" t="n">
-        <v>0.02560907044618997</v>
+        <v>-0.02024200345559524</v>
       </c>
       <c r="CE14" t="n">
         <v>-0</v>
@@ -8084,13 +8084,13 @@
         <v>0</v>
       </c>
       <c r="CG14" t="n">
-        <v>-0.07369187279794262</v>
+        <v>-0.004738800571421301</v>
       </c>
       <c r="CH14" t="n">
-        <v>0.1071317392213855</v>
+        <v>0.04866073733890929</v>
       </c>
       <c r="CI14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CJ14" t="n">
         <v>0</v>
@@ -8099,37 +8099,37 @@
         <v>-0</v>
       </c>
       <c r="CL14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CM14" t="n">
-        <v>0.03592268813174081</v>
+        <v>0.04424721686595955</v>
       </c>
       <c r="CN14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CO14" t="n">
         <v>0</v>
       </c>
       <c r="CP14" t="n">
-        <v>-0.01749731016917155</v>
+        <v>0.1287874322189005</v>
       </c>
       <c r="CQ14" t="n">
-        <v>0.3492955902243616</v>
+        <v>0.1072087424960312</v>
       </c>
       <c r="CR14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CS14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CT14" t="n">
         <v>0</v>
       </c>
       <c r="CU14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CV14" t="n">
-        <v>0.03762526415867464</v>
+        <v>-0.03365492003936697</v>
       </c>
       <c r="CW14" t="n">
         <v>0</v>
@@ -8138,16 +8138,16 @@
         <v>-0</v>
       </c>
       <c r="CY14" t="n">
-        <v>-0.05661141454154389</v>
+        <v>-0.03133483843755952</v>
       </c>
       <c r="CZ14" t="n">
-        <v>0.1390944997400942</v>
+        <v>0.04856749824212982</v>
       </c>
       <c r="DA14" t="n">
         <v>0</v>
       </c>
       <c r="DB14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DC14" t="n">
         <v>0</v>
@@ -8156,79 +8156,79 @@
         <v>-0</v>
       </c>
       <c r="DE14" t="n">
-        <v>-0.03483551047107829</v>
+        <v>0.001738150906489228</v>
       </c>
       <c r="DF14" t="n">
         <v>-0</v>
       </c>
       <c r="DG14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DH14" t="n">
-        <v>-0.1082967974370146</v>
+        <v>0.01553898703494556</v>
       </c>
       <c r="DI14" t="n">
-        <v>-0.1762349912393855</v>
+        <v>-0.0009489611483041381</v>
       </c>
       <c r="DJ14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DK14" t="n">
         <v>0</v>
       </c>
       <c r="DL14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DM14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DN14" t="n">
-        <v>0.005253232786074749</v>
+        <v>0.05051826818904669</v>
       </c>
       <c r="DO14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DP14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DQ14" t="n">
-        <v>-0.01483681545169467</v>
+        <v>-0.02220696297839628</v>
       </c>
       <c r="DR14" t="n">
-        <v>-0.0152694246372685</v>
+        <v>0.09002526560996099</v>
       </c>
       <c r="DS14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DT14" t="n">
         <v>0</v>
       </c>
       <c r="DU14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DV14" t="n">
         <v>-0</v>
       </c>
       <c r="DW14" t="n">
-        <v>-0.02994194157672421</v>
+        <v>0.05315151116357613</v>
       </c>
       <c r="DX14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DY14" t="n">
         <v>-0</v>
       </c>
       <c r="DZ14" t="n">
-        <v>-0.03075147323903297</v>
+        <v>-0.007786335718453534</v>
       </c>
       <c r="EA14" t="n">
-        <v>0.1460299151929651</v>
+        <v>0.10340197342036</v>
       </c>
       <c r="EB14" t="n">
         <v>0</v>
       </c>
       <c r="EC14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="ED14" t="n">
         <v>0</v>
@@ -8237,7 +8237,7 @@
         <v>-0</v>
       </c>
       <c r="EF14" t="n">
-        <v>0.02751498478895128</v>
+        <v>0.007897586781982895</v>
       </c>
       <c r="EG14" t="n">
         <v>-0</v>
@@ -8246,10 +8246,10 @@
         <v>0</v>
       </c>
       <c r="EI14" t="n">
-        <v>-0.1240704444942996</v>
+        <v>-0.03186369612230297</v>
       </c>
       <c r="EJ14" t="n">
-        <v>0.1276970055303545</v>
+        <v>-0.05226110065541255</v>
       </c>
       <c r="EK14" t="n">
         <v>-0</v>
@@ -8264,7 +8264,7 @@
         <v>-0</v>
       </c>
       <c r="EO14" t="n">
-        <v>-0.01441441859898895</v>
+        <v>-0.04698443825417613</v>
       </c>
       <c r="EP14" t="n">
         <v>-0</v>
@@ -8273,25 +8273,25 @@
         <v>0</v>
       </c>
       <c r="ER14" t="n">
-        <v>0.04427111287519878</v>
+        <v>-0.02350287377671716</v>
       </c>
       <c r="ES14" t="n">
-        <v>0.06715592942435306</v>
+        <v>0.01643504725067189</v>
       </c>
       <c r="ET14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EU14" t="n">
         <v>0</v>
       </c>
       <c r="EV14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EW14" t="n">
         <v>0</v>
       </c>
       <c r="EX14" t="n">
-        <v>0.04113488230248535</v>
+        <v>-0.02774096773463049</v>
       </c>
       <c r="EY14" t="n">
         <v>-0</v>
@@ -8300,13 +8300,13 @@
         <v>0</v>
       </c>
       <c r="FA14" t="n">
-        <v>-0.05178990352550757</v>
+        <v>-0.02204613115125234</v>
       </c>
       <c r="FB14" t="n">
-        <v>0.1176800677964595</v>
+        <v>0.04055711567018578</v>
       </c>
       <c r="FC14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FD14" t="n">
         <v>0</v>
@@ -8315,28 +8315,28 @@
         <v>-0</v>
       </c>
       <c r="FF14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FG14" t="n">
-        <v>-0.1186142198819114</v>
+        <v>0.0656241558314202</v>
       </c>
       <c r="FH14" t="n">
         <v>-0</v>
       </c>
       <c r="FI14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FJ14" t="n">
-        <v>-0.1358977376676714</v>
+        <v>-0.02509321085701874</v>
       </c>
       <c r="FK14" t="n">
-        <v>-0.01915482590351683</v>
+        <v>0.09904040852698046</v>
       </c>
       <c r="FL14" t="n">
         <v>-0</v>
       </c>
       <c r="FM14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FN14" t="n">
         <v>-0</v>
@@ -8345,34 +8345,34 @@
         <v>0</v>
       </c>
       <c r="FP14" t="n">
-        <v>0.02804714398446533</v>
+        <v>-0.0003977485266464727</v>
       </c>
       <c r="FQ14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FR14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FS14" t="n">
-        <v>-0.008349238771017259</v>
+        <v>0.1076283148378972</v>
       </c>
       <c r="FT14" t="n">
-        <v>0.05315170718181685</v>
+        <v>-0.0430848573884073</v>
       </c>
       <c r="FU14" t="n">
         <v>0</v>
       </c>
       <c r="FV14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FW14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FX14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FY14" t="n">
-        <v>-0.03746556692783332</v>
+        <v>-0.0317907133393224</v>
       </c>
       <c r="FZ14" t="n">
         <v>-0</v>
@@ -8381,7 +8381,7 @@
         <v>0</v>
       </c>
       <c r="GB14" t="n">
-        <v>-0.01376569994333302</v>
+        <v>0.08796926456126053</v>
       </c>
       <c r="GC14" t="n">
         <v>-0</v>
@@ -8396,66 +8396,66 @@
         <v>-0</v>
       </c>
       <c r="GG14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>-0.0307661274536041</v>
+        <v>0.07129228979941374</v>
       </c>
       <c r="B15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>-0.1616438513829183</v>
+        <v>-0.07581255442873253</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>-0.003776337527081642</v>
       </c>
       <c r="G15" t="n">
         <v>-0</v>
       </c>
       <c r="H15" t="n">
-        <v>0.1605053341308411</v>
+        <v>-0</v>
       </c>
       <c r="I15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0.03885036843679272</v>
+        <v>0.07857747991359448</v>
       </c>
       <c r="K15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>-0</v>
       </c>
       <c r="N15" t="n">
-        <v>0.04831529508470056</v>
+        <v>-0.04681773852492057</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>0.003173182458989264</v>
       </c>
       <c r="P15" t="n">
         <v>-0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.09341044873278105</v>
+        <v>-0</v>
       </c>
       <c r="R15" t="n">
         <v>-0</v>
       </c>
       <c r="S15" t="n">
-        <v>0.02236344286979414</v>
+        <v>0.002088002906465035</v>
       </c>
       <c r="T15" t="n">
         <v>0</v>
@@ -8464,55 +8464,55 @@
         <v>-0</v>
       </c>
       <c r="V15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>0.1214018761182253</v>
+        <v>-0.01386425850623122</v>
       </c>
       <c r="X15" t="n">
-        <v>-0</v>
+        <v>0.01232165621157259</v>
       </c>
       <c r="Y15" t="n">
         <v>0</v>
       </c>
       <c r="Z15" t="n">
-        <v>0.1508480997337939</v>
+        <v>0</v>
       </c>
       <c r="AA15" t="n">
         <v>-0</v>
       </c>
       <c r="AB15" t="n">
-        <v>-0.02379608676318677</v>
+        <v>-0.0007253856974697618</v>
       </c>
       <c r="AC15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AD15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AE15" t="n">
         <v>-0</v>
       </c>
       <c r="AF15" t="n">
-        <v>-0.1868677207575651</v>
+        <v>-0.01270329917678701</v>
       </c>
       <c r="AG15" t="n">
-        <v>0</v>
+        <v>0.000281050422865</v>
       </c>
       <c r="AH15" t="n">
         <v>0</v>
       </c>
       <c r="AI15" t="n">
-        <v>-0.115589911871996</v>
+        <v>0</v>
       </c>
       <c r="AJ15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AK15" t="n">
-        <v>-0.06325806587934084</v>
+        <v>0.008780766025497419</v>
       </c>
       <c r="AL15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AM15" t="n">
         <v>-0</v>
@@ -8521,292 +8521,292 @@
         <v>-0</v>
       </c>
       <c r="AO15" t="n">
-        <v>-0.1226371633903721</v>
+        <v>-0.003803160775196672</v>
       </c>
       <c r="AP15" t="n">
-        <v>-0</v>
+        <v>0.008772719643667796</v>
       </c>
       <c r="AQ15" t="n">
         <v>0</v>
       </c>
       <c r="AR15" t="n">
-        <v>-0.03073003405885773</v>
+        <v>0</v>
       </c>
       <c r="AS15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AT15" t="n">
-        <v>-0.1413527364650417</v>
+        <v>0.02445315430126497</v>
       </c>
       <c r="AU15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AV15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AW15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AX15" t="n">
-        <v>-0.1076640759480506</v>
+        <v>-0.07483276810584058</v>
       </c>
       <c r="AY15" t="n">
-        <v>0</v>
+        <v>-0.01360871841876834</v>
       </c>
       <c r="AZ15" t="n">
         <v>0</v>
       </c>
       <c r="BA15" t="n">
-        <v>0.1551931680626913</v>
+        <v>0</v>
       </c>
       <c r="BB15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BC15" t="n">
-        <v>-0.01142219267082621</v>
+        <v>0.01947860098977493</v>
       </c>
       <c r="BD15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BE15" t="n">
         <v>-0</v>
       </c>
       <c r="BF15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BG15" t="n">
-        <v>-0.06285334059331629</v>
+        <v>0.00109296108167608</v>
       </c>
       <c r="BH15" t="n">
-        <v>-0</v>
+        <v>0.0009668649730723392</v>
       </c>
       <c r="BI15" t="n">
         <v>-0</v>
       </c>
       <c r="BJ15" t="n">
-        <v>0.04214859518284162</v>
+        <v>-0</v>
       </c>
       <c r="BK15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BL15" t="n">
-        <v>0.04148201228070081</v>
+        <v>0.006597581062686835</v>
       </c>
       <c r="BM15" t="n">
         <v>-0</v>
       </c>
       <c r="BN15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BO15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BP15" t="n">
-        <v>0.01528809588635792</v>
+        <v>-0.0183086812535305</v>
       </c>
       <c r="BQ15" t="n">
-        <v>-0</v>
+        <v>0.009896865779509531</v>
       </c>
       <c r="BR15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BS15" t="n">
-        <v>-0.01282183024789095</v>
+        <v>0</v>
       </c>
       <c r="BT15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BU15" t="n">
-        <v>-0.07318223255327574</v>
+        <v>0.01781998092415035</v>
       </c>
       <c r="BV15" t="n">
         <v>0</v>
       </c>
       <c r="BW15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BX15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BY15" t="n">
-        <v>-0.06995665663244931</v>
+        <v>-0.02858772287139641</v>
       </c>
       <c r="BZ15" t="n">
-        <v>0</v>
+        <v>0.008524393151670681</v>
       </c>
       <c r="CA15" t="n">
         <v>0</v>
       </c>
       <c r="CB15" t="n">
-        <v>0.05537530077568962</v>
+        <v>0</v>
       </c>
       <c r="CC15" t="n">
         <v>-0</v>
       </c>
       <c r="CD15" t="n">
-        <v>0.02490624793964732</v>
+        <v>-0.01318387719417386</v>
       </c>
       <c r="CE15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CF15" t="n">
         <v>-0</v>
       </c>
       <c r="CG15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CH15" t="n">
-        <v>0.03258098190435155</v>
+        <v>0.0146895537992623</v>
       </c>
       <c r="CI15" t="n">
-        <v>-0</v>
+        <v>0.01070148916902053</v>
       </c>
       <c r="CJ15" t="n">
         <v>-0</v>
       </c>
       <c r="CK15" t="n">
-        <v>-0.01050774594254823</v>
+        <v>0</v>
       </c>
       <c r="CL15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CM15" t="n">
-        <v>-0.00921710334647431</v>
+        <v>0.005886519839791905</v>
       </c>
       <c r="CN15" t="n">
         <v>0</v>
       </c>
       <c r="CO15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CP15" t="n">
         <v>-0</v>
       </c>
       <c r="CQ15" t="n">
-        <v>0.03920802272792188</v>
+        <v>0.01864881254237221</v>
       </c>
       <c r="CR15" t="n">
-        <v>0</v>
+        <v>-0.001070104031170792</v>
       </c>
       <c r="CS15" t="n">
         <v>-0</v>
       </c>
       <c r="CT15" t="n">
-        <v>0.02861768580740583</v>
+        <v>0</v>
       </c>
       <c r="CU15" t="n">
         <v>-0</v>
       </c>
       <c r="CV15" t="n">
-        <v>0.01856436118475775</v>
+        <v>-0.01126667360498811</v>
       </c>
       <c r="CW15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CX15" t="n">
         <v>0</v>
       </c>
       <c r="CY15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CZ15" t="n">
-        <v>0.01782472750000381</v>
+        <v>0.01358048131946878</v>
       </c>
       <c r="DA15" t="n">
-        <v>0</v>
+        <v>0.01227720411082153</v>
       </c>
       <c r="DB15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DC15" t="n">
-        <v>-0.01752202315080184</v>
+        <v>-0</v>
       </c>
       <c r="DD15" t="n">
         <v>0</v>
       </c>
       <c r="DE15" t="n">
-        <v>0.0414625352786869</v>
+        <v>-0.003200759082367356</v>
       </c>
       <c r="DF15" t="n">
         <v>-0</v>
       </c>
       <c r="DG15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DH15" t="n">
         <v>-0</v>
       </c>
       <c r="DI15" t="n">
-        <v>0.1562872313517011</v>
+        <v>0.02403572018532018</v>
       </c>
       <c r="DJ15" t="n">
-        <v>0</v>
+        <v>0.003051516122961599</v>
       </c>
       <c r="DK15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DL15" t="n">
-        <v>0.00257132361192898</v>
+        <v>-0</v>
       </c>
       <c r="DM15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DN15" t="n">
-        <v>0.06173315848435932</v>
+        <v>0.0007621655144813144</v>
       </c>
       <c r="DO15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DP15" t="n">
         <v>-0</v>
       </c>
       <c r="DQ15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DR15" t="n">
-        <v>0.02292023481847533</v>
+        <v>-0.01717235574941413</v>
       </c>
       <c r="DS15" t="n">
-        <v>-0</v>
+        <v>0.02116918835979225</v>
       </c>
       <c r="DT15" t="n">
         <v>-0</v>
       </c>
       <c r="DU15" t="n">
-        <v>0.0318154419364108</v>
+        <v>0</v>
       </c>
       <c r="DV15" t="n">
         <v>-0</v>
       </c>
       <c r="DW15" t="n">
-        <v>-0.0476020799747014</v>
+        <v>-0.002858002726239097</v>
       </c>
       <c r="DX15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DY15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DZ15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EA15" t="n">
-        <v>0.09615582783669582</v>
+        <v>0.01310465504136489</v>
       </c>
       <c r="EB15" t="n">
-        <v>0</v>
+        <v>0.003606351526593144</v>
       </c>
       <c r="EC15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="ED15" t="n">
-        <v>0.07380334316301893</v>
+        <v>0</v>
       </c>
       <c r="EE15" t="n">
         <v>0</v>
       </c>
       <c r="EF15" t="n">
-        <v>0.05530462362606672</v>
+        <v>-0.01875675202308047</v>
       </c>
       <c r="EG15" t="n">
         <v>0</v>
@@ -8815,25 +8815,25 @@
         <v>-0</v>
       </c>
       <c r="EI15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EJ15" t="n">
-        <v>0.04582362529731736</v>
+        <v>-0.0003196736529579907</v>
       </c>
       <c r="EK15" t="n">
-        <v>-0</v>
+        <v>-0.01154406568450632</v>
       </c>
       <c r="EL15" t="n">
         <v>-0</v>
       </c>
       <c r="EM15" t="n">
-        <v>0.04431448818023649</v>
+        <v>0</v>
       </c>
       <c r="EN15" t="n">
         <v>-0</v>
       </c>
       <c r="EO15" t="n">
-        <v>0.03859129558195603</v>
+        <v>-0.01204143393626208</v>
       </c>
       <c r="EP15" t="n">
         <v>-0</v>
@@ -8842,79 +8842,79 @@
         <v>0</v>
       </c>
       <c r="ER15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="ES15" t="n">
-        <v>-0.04231109277697209</v>
+        <v>0.002885573935629679</v>
       </c>
       <c r="ET15" t="n">
-        <v>0</v>
+        <v>0.006816339416572323</v>
       </c>
       <c r="EU15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EV15" t="n">
-        <v>-0.01267256109415464</v>
+        <v>0</v>
       </c>
       <c r="EW15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EX15" t="n">
-        <v>0.03185899823773581</v>
+        <v>-0.01241257355674662</v>
       </c>
       <c r="EY15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EZ15" t="n">
         <v>-0</v>
       </c>
       <c r="FA15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FB15" t="n">
-        <v>0.02578080794767459</v>
+        <v>0.01513512419395737</v>
       </c>
       <c r="FC15" t="n">
-        <v>-0</v>
+        <v>0.01367696027708793</v>
       </c>
       <c r="FD15" t="n">
         <v>-0</v>
       </c>
       <c r="FE15" t="n">
-        <v>-0.0246134860211949</v>
+        <v>0</v>
       </c>
       <c r="FF15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FG15" t="n">
-        <v>0.06422679874407415</v>
+        <v>0.004337711884879534</v>
       </c>
       <c r="FH15" t="n">
         <v>0</v>
       </c>
       <c r="FI15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FJ15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FK15" t="n">
-        <v>0.02930941167074884</v>
+        <v>0.001126480690119104</v>
       </c>
       <c r="FL15" t="n">
-        <v>-0</v>
+        <v>-0.001380008776357887</v>
       </c>
       <c r="FM15" t="n">
         <v>-0</v>
       </c>
       <c r="FN15" t="n">
-        <v>-0.07613335158830052</v>
+        <v>-0</v>
       </c>
       <c r="FO15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FP15" t="n">
-        <v>0.09962278464695797</v>
+        <v>0.01076773567183804</v>
       </c>
       <c r="FQ15" t="n">
         <v>-0</v>
@@ -8923,31 +8923,31 @@
         <v>-0</v>
       </c>
       <c r="FS15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FT15" t="n">
-        <v>0.135022836816507</v>
+        <v>0.004503765421043308</v>
       </c>
       <c r="FU15" t="n">
-        <v>-0</v>
+        <v>0.01043186732191912</v>
       </c>
       <c r="FV15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FW15" t="n">
-        <v>-0.09525676533543923</v>
+        <v>-0</v>
       </c>
       <c r="FX15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FY15" t="n">
-        <v>0.048674721087402</v>
+        <v>0.005702496142032789</v>
       </c>
       <c r="FZ15" t="n">
         <v>-0</v>
       </c>
       <c r="GA15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GB15" t="n">
         <v>0</v>
@@ -8956,13 +8956,13 @@
         <v>-0</v>
       </c>
       <c r="GD15" t="n">
-        <v>-0</v>
+        <v>0.008260586913584739</v>
       </c>
       <c r="GE15" t="n">
         <v>0</v>
       </c>
       <c r="GF15" t="n">
-        <v>-0.03248200685108562</v>
+        <v>0</v>
       </c>
       <c r="GG15" t="n">
         <v>0</v>
